--- a/example/多条新闻/simpleNews.xlsx
+++ b/example/多条新闻/simpleNews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\NewsClassifier\example\多条新闻\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E987F0F-D29B-4A7A-9A1F-C37CE086044B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6434A0-60AE-4CC7-B015-74787E17E620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="3790" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5560" yWindow="3900" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>北京3月31日电 (记者 王恩博)随着中国金融业开放程度不断加深，越来越多外资机构来华展业。记者31日从中国银保监会了解到，外国银行保险机构在华机构数量呈现稳步增长，截至2020年末总资产合计逾5万亿元(人民币，下同)。近年来，银保监会加快推进银行业保险业形成更大范围、更宽领域、更深层次的全面开放新格局。2018年以来，该部门宣布了三轮共计34条对外开放新措施，涉及取消或放宽外资持股比例限制、放宽外资机构和业务准入条件、扩大外资机构业务范围、优化外资机构监管规则和简化行政许可流程等。2020年，银保监会积极推进对外开放落实工作，批准了一批重大外资行政许可事项，包括：批准第一家外方控股的理财公司汇华理财有限公司开业；批准贝莱德金融管理公司、建信理财有限责任公司和富登管理私人有限公司合资在上海市筹建贝莱德建信理财有限责任公司；批准香港友邦保险公司在内地分支机构改建为独资人寿保险子公司等。截至2020年末，外资银行在华共设立了41家外资法人银行、116家外国银行分行和144家代表处，营业性机构总数946家，外资银行总资产3.78万亿元。境外保险机构在华共设立了66家外资保险机构、117家代表处和17家保险专业中介机构，外资保险公司总资产1.71万亿元。2018年以来，银保监会共批准新设外资法人银行2家、外资分行30家。外资保险法人机构增加了10家，外资保险省级分公司增加了74家。银保监会透露，下一步将推进新发展格局下银行业保险业高水平对外开放，进一步完善银行业保险业外商投资准入前国民待遇加负面清单管理制度，优化监管规则，改善营商环境，积极支持在华外资银行保险机构发展。增强开放监管能力，防范金融风险。(完)</t>
   </si>
@@ -55,124 +55,139 @@
     <t>IMF总裁：预计全球经济增长好于预期但不确定性高</t>
   </si>
   <si>
-    <t>长沙3月31日电 (付敬懿)总部位于湖南长沙的中国工程机械龙头企业中联重科30日晚间发布2020年年度报告，报告期内公司实现营业收入651.09亿元，同比增长50.34%；归属于上市公司股东净利润72.81亿元，同比增长66.55%。该公司强劲增长的营收和净利，刷新纪录并创历史最好水平。与此同时，中联重科2021年一季度业绩预告也一同发布，预计期内实现归属于公司股东的净利润22至26亿元，比上年同期增长114.41%至153.39%，创公司历史最佳一季度盈利。年报显示，2020年中联重科营收净利的大幅增长源于其核心产品市占率提升、盈利能力领先行业。2020年公司工程机械业务实现销售收入613.83亿元，同比增长49.75%，各板块收入增速好于行业总体水平。2020年，中联重科研发费用同比增加120.67%，加大的自主创新、研发的投入，为公司打造技术领先的高端产品、巩固市场龙头地位提供了强有力保障。年报显示，2020年度中联重科各项经营指标持续健康、稳健提升。报告期内，公司毛利额同比增长43.28%至186.16亿元；净利润方面，2020年公司实现归母净利润72.81亿元，同比增长66.55%，净利润增速好于营收增速。2021年以来，工程机械行业受投资带动、全球经济复苏、行业集中度提升、及设备环保升级等多重利好驱动影响，市场需求持续强劲，行业目前保持高景气度。中联重科也于年报发布当天同时发布一季度盈利预增公告：预计2021年一季度归母净利润比上年同期增长114.41%至153.39%，扣非净利润比上年同期增长137.88%至189.59%，创下了公司历史最佳的一季度盈利。据了解，2021年，中联重科将持续秉持“用互联网思维做企业、用极致思维做产品”理念，加速自动化、数字化、智能化、绿色化转型升级，全力推进国际化发展，加快智慧产业城建设，高质量打造创新型、智慧型的未来企业。(完)</t>
-  </si>
-  <si>
-    <t>中联重科2020年营收超651亿元 创历史最好水平</t>
-  </si>
-  <si>
-    <t>随着机车汽笛的一声长鸣，一列中欧班列从江西南昌向塘国际陆港新城横岗站出发，驶向俄罗斯莫斯科。电脑一体机、胶带、打印机碳粉盒……列车所载的48车96个集装箱外贸货物，全部是“江西制造”。近年来，江西南昌县在省市支持下全力打造南昌向塘国际陆港新城。在建设大平台、构建大通道、形成大枢纽、发展大产业的过程中，南昌向塘国际陆港新城不断提高内陆双向开放水平，2020年外贸班列开行列数、标箱数、货值均实现增长，成为内陆双向开放的新高地。南昌向塘国际陆港新城位于南昌县向塘镇。近年来，南昌县加快推进南昌向塘国际陆港新城建设，国际货运班列及铁海联运班列现已发展至13条，2020年开行中欧班列127列，到发标箱重箱11454个，同比分别增长约5.83%、8.04%；开行铁海联运班列640列，到发标箱重箱34918个，同比分别增长约19.85%、61.94%；新增江铃汽车专列整车出口1328台，商品汽车铁路运输量达16万余台，同比增长49.61%。不靠海，不沿江，内陆地区发展外向型经济的障碍是物流成本高、物流效益低。南昌向塘国际陆港新城为何能吸引如此大的“客流”？“数据快速增长背后的原因主要有两点：一是向塘镇既有的交通枢纽优势，二是同价到港、同价起运、同样效率的‘三同’政策的赋能。” 南昌县副县长付向宇说。据介绍，向塘镇拥有全国第二、江南地区最大的向西货运编组站，江西南部地区70%的货物须经向塘发往全国各地，是江西乃至中部地区重要物流节点和货物集散地。另一方面，为了能进一步降低企业物流成本，南昌向塘国际陆港新城给予企业全程铁路运费补贴等，同时推进智慧口岸建设，逐步实现了“进境与沿海同价到港、出境与沿海同价起运、通关与沿海同样效率”。走进京东亚洲一号南昌向塘物流园，工作人员正在进行智能仓启用前的测试，几台圆形机器人在园区内来回穿梭，快速有序——这些机器人具备货物运送、上架、盘点等功能，使用后可大大提高企业仓储效率。同时，伴随着南昌向塘陆港新城“港口”功能的提升，区域内现代物流业也在优化升级。加强陆港与产业、城市融合，打造综合产业服务生态，依托交通优势吸引物流、产业、人才、资金等各种生产要素集聚……南昌向塘国际陆港新城积极吸收外地经验和智慧，科学规划发展路径。产业定位方面，南昌向塘国际陆港新城确立了现代物流业为主、先进制造业和高端服务业为辅的“1+2”产业体系。产业支持方面，南昌县出台支持向塘国际陆港发展“三十条”，为落户企业提供租金减免、税收奖励、金融支持等方面的扶持。2020年，通过靶向招商，一批项目成功签约，投资额达123.3亿元。“无论是港产联动还是产城融合，最终目的都是为了人们能够享受到更美好的生活。”付向宇说。为此，向塘镇开展“蓝天、碧水、净土”三大行动，重点规划莲溪河及区域内滨水生态建设，在南昌向塘国际陆港新城内设立健康休闲乐活水岸、高品质人才居住生活圈。此外，南昌向塘国际陆港新城还依据南昌市及南昌县相关人才政策，为入驻的人才积极兑现购房补贴、子女教育、医疗保健、生活补贴等人才支持政策。据介绍，按照“一步规划、分步实施”的原则，南昌县将逐步把南昌向塘国际陆港新城打造成为“国家陆路开放实验示范区”“江西‘三同’实验发展创新区”和“大南昌都市圈铁路物流集聚区”。</t>
-  </si>
-  <si>
-    <t>“无水港” 双向开放添动力</t>
-  </si>
-  <si>
-    <t>中国进口增强世界经济动能(新知新觉)进口是联通国内国际两个市场两种资源的重要渠道，对于提升我国经济发展水平、更好满足人民美好生活需要具有重要作用，对于促进世界各国互利共赢也有重要意义。党的十八大以来，我国进口快速发展，取得了令人瞩目的成绩。2020年，尽管受到新冠肺炎疫情影响，我国扩大进口的步伐仍在加快，不断为世界经济发展注入动能。货物进口规模不断扩大。2009年，我国货物贸易进口额超过德国，首次成为仅次于美国的世界第二大进口国。截至2019年，我国已经连续11年稳居全球第二大进口国。2001—2020年，我国货物进口总额年均增速达到11.88%，是全球货物进口年均增速的2倍左右。虽然新冠肺炎疫情对我国进口造成一定冲击和影响，但总体上看，2020年我国货物进口仍表现出较好的运行态势，进口总额达到14.22万亿元。在新冠肺炎疫情全球大流行、部分经济体进口大幅下降的情况下，我国进口能取得这样的成绩殊为不易，为世界经济发展注入了强大动能。关税总水平大幅下降。自2001年加入世界贸易组织以来，我国坚持履行降低关税承诺，大幅降低进口关税，到2010年货物降税承诺全部履行完毕，达到并超过了世界贸易组织对发展中成员的要求。目前，我国关税总水平已处于较低水平，进口关税总水平已经降至7.5%，低于绝大多数发展中国家关税水平。2001—2020年间，共有4482种产品的进口关税实现下降，占2020年我国全部5386种进口产品的83.2%，大部分进口产品的进口关税降幅高于40%。关税总水平的下降，为各国商品进入我国市场创造了更加有利的条件，促进了世界各国共享中国市场机遇；同时也直接降低了消费品的进口成本，使我国消费者能够以更低的价格享有种类更加丰富的进口产品，更好满足人民美好生活需要。对世界进口增长贡献突出。2001—2019年，我国货物进口总额增量占全球货物进口增量的比重达到14.3%，仅次于欧盟。2019年，我国货物进口总额占世界进口总额的比重达到10.8%。2020年前10个月，这一比重达到11.5%，创历史最高水平。与此同时，我国已经成为世界许多国家和地区的主要出口目的地，我国进口占主要贸易伙伴出口的比重继续呈现增加态势。2019年，我国已经成为韩国、俄罗斯、澳大利亚、巴西、马来西亚、印度尼西亚和新加坡的第一大出口市场，日本、泰国的第二大出口市场，美国、欧盟和印度的第三大出口市场。我国进口规模的扩大，既显著促进了与我国贸易往来较为密切的国家、“一带一路”参与国家、经济合作与发展组织(OECD)国家、中低收入国家的经济增长，又为相关国家创造了更多就业机会。展望未来，我国将继续秉持开放、合作、团结、共赢的信念，坚定不移全面扩大开放，在构建新发展格局中更有效率地实现内外市场联通、要素资源共享，依托大市场优势，促进国际合作，开拓合作共赢新局面。一是有效发挥自由贸易试验区、自由贸易港引领作用，推动建设更高水平开放型经济新体制；二是进一步压缩《中国禁止进口限制进口技术目录》，为技术要素跨境自由流动创造良好环境；三是继续完善公开透明的涉外法律体系，强化知识产权保护，维护外资企业合法权益；四是同更多国家商签高标准自由贸易协定，加强同世界高标准自贸区交流互鉴；五是同相关国家和地区高质量共建“一带一路”，推动构建人类命运共同体。(作者为北京师范大学经济与工商管理学院教授)</t>
-  </si>
-  <si>
-    <t>中国进口增强世界经济动能</t>
-  </si>
-  <si>
-    <t>春季出游热潮即将到来 预计今年清明节出游人次将达到1亿人次在继续做好疫情防控各项措施的前提下，国内游文旅市场不断传来好消息。从各地看，政策放宽，清明节和“五一”假期旅游产品、机票预订量均超2019年同期，春季出游热潮即将到来。3月21日，国务院联防联控会议明确，全国目前基本实现了健康码的“一码通行”。 在测温正常且做好个人防护的前提下可有序出行，各地不得擅自加码。这意味着低风险地区人员可凭健康码“绿码”在全国区域内自由通行，无需核酸检测阴性证明。同时，疫情低风险地区对剧院等演出场所、上网服务场所、娱乐场所接待消费者人数比例不再做统一限制，由各省(区、市)党委、政府根据当地疫情防控形势自行掌握。不搞“一刀切”。厦门游客：到(湖北)恩施也可以，到(广西)桂林也可以，因为整个(疫情)都已经都控制下来了，那我们慢慢可以往远处走了。河北游客：因为之前疫情(防控需要)在家里比较闷，一出来自然心情有点放飞，在这个美好的环境下，肯定心情也是美美的。综合大数据统计显示，各大旅游平台预订清明节时期的景区门票的人次已经恢复至2019年同期水平。预计今年清明节出游人次将达到1亿人次，清明假期有望迎来今年首个跨省出游小高峰。专家提醒，在出游意愿增强的情况下，疫情防控不松懈，要做好自我防护。中国旅游研究院院长 戴斌：所以我们明显地感觉到消费的热度起来了。(大家)在做好防护的前提下，该去测温的测温，该有绿码有绿码，享受美好的生活。亲近自然 踏青游赏花游拉动乡村游热度随着气温回升，各地花卉竞相开放，春游赏花、乡村踏青成为2021年春天的最佳打开方式，拉动近郊游和乡村游热度持续攀升，提振消费信心。在成都锦江区三圣花乡七彩田野，占地45亩的樱花林已经进入到了最佳观赏期，樱花竞相绽放，春风拂过，花瓣轻扬如雨，春意烂漫。成都春季花卉节负责人 脱耀文：以“花”经济为主，赏花、观景、娱乐相融合，营造高品质旅游目的地，通过线上活动免费赠送门票来吸引人气，拉动消费，振兴乡村旅游。一季度，关键词“赏花”在各大旅游平台的搜索量环比增长280%；预订赏花景区的人数相比2019年增长115%。其中，3月份春季周边游、乡村游预订量同比涨幅超过400%。旅游搜索平台业务负责人 胡宏涛：我们也通过旅游直播的方式开设了“赏花主题栏目”，将国内的樱花、桃花、梨花、油菜花等各类春日景象都包罗其中，通过百位旅游达人的镜头，让游客足不出户就可以欣赏美丽的花季。目前，各家旅行社在三四月赏花游、踏青游热度的基础上，已经陆续推出了清明、五一假期的旅游产品，清明之后连续五天的“五一假期”出游目的地，也从周边近郊辐射到更远的省外地区。由于预定量的增加，清明、五一假期的旅行费用也会有小幅度上涨。一季度我国文旅消费额将超1万亿元此外，根据今年一季度文旅市场调查显示，随着低风险地区对文旅、演艺消费限制的进一步放开，文化演艺市场将全面复苏，预计一季度文旅消费额超1万亿元，同比增长超150%。3月下旬，大型历史舞台剧《长恨歌》在陕西骊山华清宫复演，在坚持测量体温和查验绿码后，观看坐席由2600人增到3000人，不超过最大接待量的75%。深圳游客 龚艳丽：给我们带来视觉、听觉感官上的震撼享受。今年恰逢建党百年，重温红色经典，红色旅游主题线路和红色教育题材演艺也成为演出舞台上的热点。作为海南热门的红色旅游目的地之一，三亚除了每天上演《红色娘子军》之外，同步排练新节目《琼州阻击战》，力争在6月30日前后推出双场演出。此外，为鼓励红色主题演艺更加贴近观众，入脑入心，各地结合实际，创新性地推出了红色演艺“云”直播、“快闪”互动、5G红色景区科技秀等多种新方式，多渠道宣传、推广、传承红色文化和革命历史。中国经济发展研究会会长 黄泰岩：用新供给挖掘新需求，所以比如说我们现在看到的像文化产业、文旅产业，这方面的消费都是巨大的，增长速度都是非常快的。</t>
-  </si>
-  <si>
-    <t>春季出游热潮即将到来 预计清明节出游人次将达1亿</t>
-  </si>
-  <si>
-    <t>翻开中国地图，北部湾——西南地区最便捷的出海口清晰可见，北海、钦州、防城港3座港口城市宛若3颗明珠，璀璨夺目。借着改革开放的东风，港兴城兴产业兴，广西北部湾沿海地区生产总值40余年间增长超百倍，如今已一跃成为我国西南沿海新的经济增长极和“一带一路”有机衔接的重要门户。2020年，北部湾港完成货物吞吐量达2.67亿吨，完成集装箱538.37万标箱，跻身我国沿海港口集装箱吞吐量前十。孙中山先生在《建国方略》中提出将钦州港打造成“南方第二大港”的梦想，100年后正一步步变为现实。从南国渔村到亿吨大港3月的北部湾畔，春潮涌动，万吨巨轮往来穿梭，码头旁、园区内一派繁忙，“一湾相挽十一国”的独特区位优势正成为发展优势。然而，改革开放前，北部湾沿海到处是荒芜的滩涂，散布着一个个小渔村。一湾碧海波光粼粼，却“有海无港”，长期封闭落后。“以前这里基本与世隔绝，渔民出海捕捞的鱼虾卖不出去，穷得‘顿顿吃海鲜’，连大米、红薯等都少见。”广西北部湾港国际集装箱码头有限公司政工部主任刘强是发展的见证者，他回忆说，1992年建港之前没什么基础设施，老港区所在的勒沟村没有像样的道路，甚至不通水不通电，在这里建港犹如“痴人说梦”。与东部沿海地区相比，背靠大西南的广西当时虽然已有北海港和防城港两个港口，但因建设规模小、吞吐量偏低，难以发挥面向东南亚的区位优势，更难以承担西部开放的重任，大型港口建设迫在眉睫。上世纪90年代初，通过反复科学论证，中央和自治区对钦州建港给予资金、人才等支持，钦州干部群众纷纷捐款捐物，1992年8月1日，钦州港正式开建。刘强说：“大家心里只有一个目标，那就是实现大港梦。”14个月后，两个万吨级码头泊位在钦州港顺利建成。“现在，万吨级码头级别很小，但在当时是迈出了一大步。”北部湾港钦州码头有限公司人力资源部经理助理杨煜华1993年来港口工作时只有22岁，与另外8位女工组成“娘子军”，主要负责接收货物。“起初港口的货物主要是化肥、锰矿等工业产品，港口机械设备有限，很多货只能靠肩挑背扛。”钦州港1996年获准设立为省级开发区，1997年钦州港一类口岸正式对外开放，2006年被列为全国地区性重要港口。与此同时，北海1984年被列为全国14个沿海开放城市之一，北海港1986年第一个万吨级泊位建成投产。防城港1984年首接万吨级货轮，1989年被列为全国19个枢纽港之一，2005年吞吐量突破2000万吨。2007年，为适应开放发展新形势，广西壮族自治区党委、政府决定“三港合一”成立北部湾国际港务集团，开创了全国沿海港口跨行政区域整合的先河。整合后，钦州港主营集装箱业务，防城港聚焦大宗散货，北海打造邮轮母港。清晨，伴随着码头旁机器的轰鸣声，钦州港勒沟作业区调度室值班主管庞建春开始了一天的工作，他手上的信息表清晰地记录着巴拿马、新加坡、巴西、南非等10多个国家和地区的船舶靠泊顺序。“20多年前，这里每天只有一些钢板船靠泊，载重多为千吨级，而今10万吨级的货轮已经较为普遍。”庞建春说。孙中山先生在文中所提的钦州港就是目前的北部湾港。如今北部湾港共有生产性泊位超过260个，其中万吨级以上泊位95个，最大靠泊能力为30万吨级，成为中国面向东盟的国际门户港，是“一带一路”有机衔接的重要门户。3月18日，北部湾畔传来好消息：广西首台“5G移动边缘计算(MEC)”在广西钢铁集团有限公司防城港钢铁基地启用，这将有效助力钢铁行业高质量发展。而在20多年前，北部湾沿海的工业几乎是一片空白。北部湾防城港码头有限公司生产保障部党支部书记蒋启明在码头一干就是38年，他清楚地记得，刚来时港口周围基本没有什么产业，装运的货物主要是矿产和粮油。“近年来，港口吞吐量不断上升，2020年已经突破亿吨。城市周围的工厂多了，产业布局也不断完善。”港口犹如广西北部湾经济区发展的龙头，随着基础设施建设不断完善和吞吐量的迅速上升，临港产业随之快速发展。目前，北部湾沿海地区积极抢抓机遇，着力打造以海洋产业、绿色临港产业、腹地特色产业等为主体的“向海产业”，初步形成有色金属、高端石化、电子信息等产业集群。在广西自贸区钦州港片区华谊化工新材料一体化项目基地，多台塔吊来回摆动，施工现场热火朝天。这一项目总投资700亿元，是广西目前最大的单体投资项目。上海华谊集团董事长刘训峰说，之所以来钦州，看中的就是海港优势，项目建成后将努力打造国内乃至国际一流的化工新材料基地。在钦州，“油、煤、气、盐”多元石化产业体系初步建立，华为数字小镇、恒逸化纤、桐昆石化等项目开工，并带动和吸引荷兰孚宝、法国苏伊士等行业领先者前来落户。在北海，石油化工、新材料、硅科技和林浆纸4个千亿级产业加速形成，惠科电子产业城、信义玻璃、太阳纸业、新福兴硅科技产业园等项目加速推进。在防城港，钢铁、有色金属、能源、粮油等为重点的现代临港产业集群加速形成，柳钢、盛隆冷轧等一批项目加速落地。目前，北部湾沿海通道产业集聚能力不断增强，枢纽经济已初具规模。“依托港口发展，北部湾经济区已经从10多年前基本没有重大项目落户的‘产业荒漠’，成长为我国西部重要的产业基地。”自治区北部湾经济区规划建设管理办公室常务副主任魏然说，“十四五”期间，经济区将基本形成“陆海内外联动、东西双向互济”的新局面，打造新时代区域协调发展新样板和带动广西高质量发展新增长点。3月26日，一趟由重庆团结村站始发的铁海联运班列，满载着汽车零配件、铝卷等货物抵达钦州港东站，这批货物将在两天后通过北部湾港出口至印尼、新加坡等地。这次班列走的就是西部陆海新通道，这条将中国西部与东盟国家紧密相连的“黄金通道”，向南连接越南、马来西亚等“一带一路”沿线国家和地区，向北连接云贵川渝等省市。而在2000多年前，我国的船队曾从北部湾畔的“古代海上丝绸之路”早期始发港合浦出发，沿着东南亚驶向中东。自2017年铁海联运开通以来，目前已开行连通西部省份的5条铁海联运班列线路，常态化开行“桂北班列”“桂东班列”。2020年开行4596列，较2019年的2243列有大幅增长，开行数量超过前3年总和。在钦州港大榄坪南作业区，我国首个铁海联运自动化集装箱码头建设如火如荼，码头采用全球首创的“U”型工艺方案。工程将于2023年建成，届时，依托钦州港东航道通航能力，自动化码头可与配套的铁路中心站无缝连接。“2013年，我国提出‘一带一路’倡议，作为亿吨大港，北部湾港不断发挥我国面向东盟的前沿门户优势，其枢纽地位正随着西部陆海新通道等深入推进稳步提升。”广西北部湾国际港务集团有限公司副董事长黄葆源说，北部湾港已开通内外贸航线超50条，通达全球100多个国家和地区的200多个港口，实现东盟主要港口全覆盖。在织密航线网络、升级港口建设的同时，北部湾港还不断扩大在马来西亚关丹港、文莱摩拉港的投资，推进与东盟其他国家合作开发建设港口的商谈工作，中国—东盟港口城市合作网络成员达到39个。截至3月12日，今年北部湾港集装箱吞吐量突破100万标箱，同比增长超过40%。数据显示，今年前两个月，北部湾港(本港)货物吞吐量超过4000万吨，同比增长12.3%，跻身全国货物吞吐量和集装箱吞吐量“双前十”行列。广西北部湾港国际集装箱码头有限公司常务副总经理方健力见证着钦州港从无到有、从小到大。他说，依托西部陆海新通道，北部湾港积极投身构建新发展格局，国际门户港建设正加快推进。几代人孜孜以求的“南方第二大港”梦想，只有在中国共产党的领导下，才能实现。(记者王念、潘强)</t>
-  </si>
-  <si>
-    <t>中山先生畅想的“南方第二大港”百年追梦记</t>
-  </si>
-  <si>
-    <t>“剧本杀”是如何俘获年轻人的2016年前后悄然出现的“剧本杀”游戏，在短短几年间俘获了众多年轻玩家。某生活服务平台统计数据显示，截至2020年年底，“剧本杀”线下门店已突破3万家，剧本杀App在苹果应用商店游戏免费榜中飙升至第三位，俨然新游戏霸主。何谓“剧本杀”？它其实是“谋杀之谜(murder mystery game)”的中文译名，是欧美年轻人喜欢的一种多人角色扮演的推理游戏，具有戏剧和游戏双重属性。国内一些综艺节目等借鉴“剧本杀”游戏模式设计内容，从而带动了“剧本杀”在国内的流行。当下国内“剧本杀”风格已呈现多样化，不过它们拥有共同的叙事框架和底层逻辑，即“谋杀—调查—推理—找出凶手或洗脱嫌疑”，也就是一群玩家围绕一个案件或事件，分别扮演正派和反派角色，最后玩家们通力合作发现真凶。这样的过程称为“打本”“玩本”“盘本”，一场下来需要4～6小时。时下的“剧本杀”有线上和线下“打本”两种方式。线上App提供的剧本大部分免费，少数精品剧本需要付费，玩家在同一个“房间”以声音展开角色扮演游戏；线下实体店通常根据剧本设定布置场景，玩家同处一室，通过语言、表情、谈吐、肢体动作等表演故事。不难看出，“剧本杀”集合了90后、00后所喜爱的流行文化样式，如真人秀、直播、脱口秀、Cosplay(角色扮演)、吐槽大会等，不同的是，“剧本杀”让普通观看者摇身一变为剧情表演者，由此带来全方位、多感官、深度卷入的极致体验。从组团选本、研读剧本到开始表演，“剧本杀”长时间的身心投入、沉浸式的游戏氛围，观察、揣摩、讨论的玩本过程，本质上是人与人之间一次难得的深度交流沟通。毫不夸张地说，“剧本杀”已成为年轻人扩大社交圈的一种有效媒介。就组团来说，线上“剧本杀”以陌生人为主，线下“剧本杀”则叠加了熟人和陌生人。笔者研究团队在访谈中发现，年轻人之所以偏爱线下打本，在于这种玩法重新恢复了被互联网社交媒体“弱连接”蚕食的线下真实身份的强连接，有助于跳出自己日常生活和工作的圈子，结识更多有趣好玩的人，甚至发展成为好朋友。游戏外玩家的线下聚会活动，也很难让“独自打保龄球”的“空巢青年”“免疫”。一代人有一代人的游戏。跳房子、捉迷藏、拼乐高、玩王者荣耀……在众多游戏类型中，最迷人的莫过于关于身份想象与角色扮演类的游戏。换言之，每个人内心都有一个“魔鬼”，都不愿意服从现实生活分配给他的角色，都在等待和寻找逾越现实身份的时机。“剧本杀”无疑为当下生活在庸常状态的年轻人提供了想象和超越的游戏空间。大量“剧本杀”的故事框架虚构了时空，遮蔽了真实身份，留出肆意想象的游戏空间。这种时空和角色身份的转换，从某种意义上来说，是解决关系紧张、释放对峙情绪、获得内心平衡的一种方法。在“剧本杀”中，玩家自主挑选角色、发挥想象力补充和丰富角色的过程，也是逐渐放下自己，进入想象和扮演“他者”的过程。借用弗洛伊德的说法，玩家忘掉“自我”，无惧“超我”，仅留“本我”在场。如此，现实世界的规范、法则和道德便失去约束力，玩家按游戏的规则而非现实的规则，按本能的、快乐的原则而非社会的、道德的原则行事，甚至可以不断触碰自我底线，挑战超我，在游戏空间里安全地享受不被现实世界所允许的奇情幻想。无论是开放式还是封闭式的剧本，都可以让参与其中的玩家产生更好的游戏和人生体验。游戏是人的本能欲望，也是构建完整人格所不可缺少的组成部分。现代社会快速发展伴随着的失控，正在撕裂完整人生，我们不得不面对异化的威胁，因而挣脱束缚，从片面、功利的人回归完整的人便成为人们需要游戏的重要动因。“剧本杀”为玩家提供了非日常的游戏娱乐空间，沉浸式玩本过程具有释放压力、寻觅刺激、获得愉悦的治愈功效。在游戏提供的充满想象力的异度空间中，玩家得以摆脱日常羁绊，以“他者”身份体验天马行空的多样人生。玩本作为媒介，也为年轻人创造了深度互动交流和拓展社交关系的可能性。</t>
-  </si>
-  <si>
-    <t>线下门店已突破3万家  “剧本杀”是如何俘获年轻人的?</t>
-  </si>
-  <si>
-    <t>坚持发展和规范齐头并进平台经济，有规矩才能走得远（网上中国）网购、打车、点外卖、上网课……随着数字经济快速发展，人们衣食住行紧密关联着互联网平台。同时，一些平台企业发展不规范、不充分的问题逐渐暴露。近日召开的中央财经委员会第九次会议强调，中国平台经济发展正处在关键时期，要着眼长远、兼顾当前，补齐短板、强化弱项，营造创新环境，解决突出矛盾和问题，推动平台经济规范健康持续发展。“数字化生活真便利”在广州一家企业工作的王先生常感叹“数字化生活真便利”，他每天早上7点起床，一天的数字化生活就此开启：洗漱完毕，先通过打车软件下单。上班途中，他通过订餐软件，选了一份公司附近的早餐。在公司门口，具备人脸识别的考勤系统，准确记录他的抵达时间。下班快到家时，他在一款售卖生鲜的APP上下单一些蔬菜、鱼肉，快递员会在他到家后送货上门……如今，越来越多中国人已经习惯这样的数字化生活，背后是像京东、美团、滴滴、微信、顺丰等互联网平台企业的发展。这些企业是平台经济的重要参与方。工信部发布的数据显示，2020年中国规模以上互联网和相关服务企业完成业务收入12838亿元，同比增长12.5%。其中，互联网平台服务企业实现业务收入4289亿元，同比增长14.8%。随着中国平台经济快速壮大，一批新模式、新业态逐渐兴起。特别是防疫期间，互联网平台在生活服务、在线教育、线上问诊、远程办公等方面发挥重要作用，既便利了百姓生活，又为产业升级提供新动能，为就业创业提供了新机遇。国务院发展研究中心市场经济研究所研究室副主任漆云兰说，平台经济目前主要呈现几个特征：一是市场主体非常活跃，个体规模发展较快；二是平台企业类型不断创新，形式逐渐丰富，基本涵盖了消费者生活的方方面面；三是逐渐形成平台经济的生态链，对消费端的引领和带动作用非常明显。中央财经委员会第九次会议指出，平台经济有利于提高全社会资源配置效率，推动技术和产业变革朝着信息化、数字化、智能化方向加速演进，有助于贯通国民经济循环各环节，也有利于提高国家治理的智能化、全域化、个性化及精细化水平。你是否有过这样的遭遇：刚刚搜索过某品牌新款手机，另一个应用程序就出现消费贷的广告；才在朋友圈给朋友的颜值“点赞”，没多久就出现“美容整容贷”的推荐……这些“精准营销”背后，是一些互联网平台对金融消费者个人信息的“了如指掌”。今年央视“3·15”晚会曝光了侵害消费者权益的诸多行为：360搜索医药广告造假链条，UC浏览器涉及为无资质公司投虚假医药广告，智联招聘、前程无忧、猎聘平台存在泄露求职者简历的现象……“新老问题的交织叠加，进一步加剧了平台治理的复杂性。”中国信息通信研究院发布的《互联网平台治理研究报告》这样总结平台经济面临的治理难题：一方面，传统经济活动中尚未被解决好的问题，在平台时代被进一步放大。如侵权假冒、违法信息、售后服务差等问题，在网络交易类平台更为凸显。另一方面，一些新模式、新业态出现，引发了新问题。如一些APP过度收集用户信息，数据流动与数据保护之间存在矛盾与冲突，平台社会责任缺失，强制平台内商家“二选一”、大数据“杀熟”，算法价值观异化引发推送内容低俗化、强化“信息茧房”等。这些问题，既说明一些平台企业发展不规范、存在风险，平台经济发展不充分、存在短板，又反映出当前平台监管与审核机制还不健全。中国国际经济交流中心首席研究员张燕生表示，在发展中规范、在规范中发展，二者齐头并进，平台经济才能健康稳步发展。近日，国家市场监管总局出台《网络交易监督管理办法》，对进一步压实平台主体责任提出多项措施。比如，要求平台经营者对平台内经营者提交的信息进行核验登记，并显著区分标记已登记和未登记的经营者；对平台内经营活动建立检查监控制度；对平台内经营者采取警示、暂停或者终止服务等措施的，应当自决定作出处理措施之日起一个工作日内予以公示有关信息；按照市场监管部门在监管执法活动中的要求，提供平台内经营者身份信息、商品或者服务信息、交易信息等。北京大学电子商务法研究中心主任薛军在接受本报记者采访时表示，平台具有“市场”和“企业”双重属性，是实现平台经济规范健康发展的关键一环。作为贯彻落实电子商务法的重要部门规章，《网络交易监督管理办法》的出台，让电子商务法长出了“牙齿”。随着监管强起来，平台内部治理不断深化。天猫平台相关负责人对本报记者表示，平台支持商家对发布的产品进行自检，并提供预警信息，帮助商家自检自查并进行整改。快手平台方面介绍，平台已采取管控入驻门槛、强化商品品质保障、改善售后服务保障、开展商家教育与培训等措施。比如，平台组建了近百人的买家团队，以普通消费者的身份和方式购买样品，对商品品质进行抽检。据专家指出，监管不是为了限制平台企业发展，而是要创造一个公平的市场竞争环境，让真正有竞争力的企业在创新创业大潮中脱颖而出。“十四五”规划纲要提出，要“促进共享经济、平台经济健康发展”。专家认为，应根据平台经济发展中遇到的新情况、新问题、新业态，不断健全法律法规体系，营造良好的制度环境；同时平台要强化合法合规的经营理念，切实落实自身社会责任，立足体制机制和科技创新，方能不断为中国经济高质量发展提供活力动力，不断满足人民日益增长的美好生活需要。</t>
-  </si>
-  <si>
-    <t>坚持发展和规范齐头并进 平台经济有规矩才能走得远</t>
-  </si>
-  <si>
-    <t>“后疫情时代”，方便食品成为“三好生”潜力股？电视剧《都挺好》已经热播两年多了，但还是留在不少观众的记忆中。里面那个知性、时尚的苏明玉被哥哥殴打后送进医院。她出院后回到了自己的住处，里面生活用品应有尽有，唯一缺少的就是食物。面对仅有的一包方便面，没难倒作为烹饪高手的男朋友。当一碗热气腾腾的面端上桌，明玉蘸着油条一吃，不禁赞叹道：“嗯！从来没吃过这么好吃的面。”你可以把这理解为“珍珠翡翠白玉汤”式的饥渴，但至少电视剧的编剧没有像往常那样，歪曲方便面没有营养。更要说的是，一年多来在新冠疫情“大考”面前，方便食品有了成为食物供应中“三好生”的潜质。方便面如川剧变脸般花样百出如果用我国四川特色地方剧“变脸”来形容今天的方便面品种，一点都不为过。今麦郎的非油炸蒸出来的方便面正在征服日本面食大厨的胃，红烧牛肉、泡椒牛肉、酸辣牛肉不同口味，还有刀削面都在其中。如果，你再说只是图上有牛肉，打开面里看不见，那就打开一包康师傅的“面馆速达”看看，里面实打实60克的大块牛肉。《中国居民膳食指南》里建议的一天红肉的摄入量，这一顿就吃够了。还有多个品牌的虾仁方便面里的虾仁可是真材实料哟。为了减油、减盐、减糖，方便食品行业的科研人可真是动了脑筋。有糖尿病和怕发胖的食客说，不敢吃这么净白的面条，怕血糖指数蹭蹭地往上走。那就选加入了鲜土豆和红薯制作的低GI的方便米粉、酸辣粉甚至方便火锅。疫情期间提倡就地过年，方便凉皮可算是露足了脸儿，我试着在天猫下单，不贵还很气派。在大鱼大肉摆了一桌子的年三十晚上，上这一大盘子方便凉皮，再切上些心里美、黄瓜丝、胡萝卜丝当配料，倒上调料一拌，那不清口解腻才怪呢。后疫情时代的今天，方便面繁多的品种正在满足着人们不同的需求，今年以来，像方便螺蛳粉、刀削面、手擀面、西北油泼辣子面、湖北热干面这些地方特色美味卖得火热。尤其是今年许多人就地过年，家乡的味道成为人们“他乡为异客”的慰藉。疫情期间，居家办公、在家上网课的人真不在少数，虽有快递、饿了么在小区里飞驰穿梭，但你要不备点方便面、挂面之类的在家心里就不踏实。还有，不知你有没有发现，说方便面32小时不消化类似的谣言越来越少了，就连临床营养师们也在改变口气说，如果怕油炸方便面油过量的话，可以把第一次泡面的水倒掉，再加新水。你看，谁都不愿做历史车轮的绊脚石不是。因快捷方便、营养均衡等优点自加热食品成为新兴“网红”在新冠疫情面前，免疫力成为人们热切关注的话题。营养均衡、合理膳食则是增强免疫力最基本的要素。只有方便面是不能满足广大百姓健康需求的，那么，又有主食又有菜、肉的自热食品成为了一个重要选择。只需冷水浸泡发热包便能快速吃上一顿热乎乎的饭菜，每次在购物群里只要有自热咖喱牛肉米饭、自热面条、自热火锅等，都会被人们争相点击购买。最令我惊喜的是在较为偏远的河北怀来的超市货架上，也能找到这类自热食品，那可是城市的人们追逐农家饭灶台鱼的好去处。在此，我不禁想到2022年冬奥会将在张家口举办，是不是这些自热食品也会连同方便面一起进入场馆呢？让我们拭目以待吧。各类菜肴半成品涌现市场每个人都能轻松“露两手”说起速冻食品，那可是越来越受到消费者的欢迎。这不，今年的正月十五，汤圆尤其是黄黏米汤圆备受人们的青睐；日常的速冻小馄饨、煎饺、鲅鱼馅的饺子也都特别受欢迎；至于腌制好的速冻西冷牛排价格高些，但周末也是人们小奢一把的不错选择；再有就是速冻手抓饼、葱油饼、馅饼、油条等，不但是餐桌的常客，更是人们进行二次加工、制作更多美味料理的原料。比如现在许多年轻人不会和面，但跟着网上的创意教学，用现成的葱油饼坯也可以制作出美味的馅饼、牛角酥，人人都可以成为大厨。春节前，网上冷链销售的“佛跳墙”“梅菜扣肉”这类技术性很强的美味也成了热销品。在稻香村或在超市里能看到“天福号”等老字号，同样也能看到速冻饺子、馄饨和大块包装好的酱牛肉，更有和二十四节气紧密相连的美食，坛坛罐罐的那都离不开工业食品。最后不得不说，目前在一些自媒体的公众号、视频号里，有“专家”仍在诋毁着方便食品的名声。这种说辞不像“面条可燃、蛋糕里加棉花”那样低劣的谣言容易被识破，但其负面作用更大。我很善良地认为，他们不可能是想在公众面前成为谣言的制造者，而是出于自己知识的局限性而无意说出的。我想说，不是一家两家组织机构能解决的问题，需要权威部门出面来协调。让专家真的“专”起来，不要误导民众，对自己的名声也要负责。</t>
-  </si>
-  <si>
-    <t>“后疫情时代”，方便食品成为“三好生”潜力股？</t>
-  </si>
-  <si>
-    <t>深圳向炒房说不 本报记者 杨阳腾曾因“万人摇号”“打新热潮”而屡上热搜的深圳楼市，近日又因为监管层推进有关经营贷流入房地产市场情况的核查工作被推上热搜，从紧锣密鼓推进资金违规进入楼市检查，到进一步加强深圳商品住房购房资格审查和管理，一系列政策表明了深圳对炒房者的态度。深圳正疏堵结合力保当地房地产市场健康发展。近日，深圳市住房和建设局发布2021年工作计划，强调重点抓好九大工作来稳房价、保供应、规范租赁市场，其中包括全年新开工1500万平方米住房、建设筹集租赁住房10万套、加快完善“1+3+N”住房政策体系、通过联合执法加大市场秩序整治等，推动深圳楼市回归理性轨道，引发社会关注。“从这个计划中可以看出，深圳正逐步将侧重点从需求侧管控楼市，转向以供给侧改革加大力度平衡供需的战略上来，着力解决住房供需矛盾。”广东省房地产行业协会专家宋丁接受经济日报记者采访时表示，在4个一线城市中，深圳住房供给不足、供需矛盾尖锐的特点明显。深圳楼市另一个显著特点是二手房成为市场主导。由于新房供应紧张，大量购房消费需求流向二手房市场。“深圳一直以来是一个存量市场，每成交三套房里有两套是二手房，以前政策调控重点放在一手房，二手房市场热度难减。”宋丁分析，从去年开始，深圳调控手段全面覆盖一手房市场和二手房市场，对控房价、稳预期发挥了重要作用。2020年7月15日，深圳出台《关于进一步促进深圳市房地产市场平稳健康发展的通知》，被称为“史上最严限购令”，规定深圳需落户满3年且社保满3年才有购房资格，非深户要5年社保。夫妻离婚，购房资格倒追3年计算套数。此后，深圳又层层加码，在政策面上抑制炒房行为。今年2月8日，深圳市住房和建设局发布《关于建立二手住房成交参考价格发布机制的通知》，公开全市3595个住宅小区二手住房成交参考价格，引导市场理性交易。“长期来看，参考价发布机制将让二手房市场回归理性，深圳楼市有望朝着更加平稳健康方向发展。”中原地产代理（深圳）有限公司董事总经理郑叔伦说。针对经营贷被违规挪用等乱象，深圳监管层加大打压力度，同时升级调控政策，严厉打击捂盘惜售、哄抬房价、虚假宣传等行为，同时采取措施有效遏制通过假结婚获得购房资格的炒房行为，从资金来源端管控，减少高杠杆购房者入市。一系列“组合拳”出手，深圳楼市逐渐降温趋稳。解决供需矛盾还必须加大供给。宋丁告诉记者，面对旺盛的住房需求，单靠需求端管控难以平衡市场，需要更多从楼市供给端入手，通过多层次的楼市供应，满足不同购房人群的置业需求。“在2020年之前的五年，深圳宅基地供应最高的时候每年10块地，最低的时候仅3块地，但是2020年一年就增加了31块地，宅基地供应明显跟了上来。”宋丁说。郑叔伦则表示，增加供应不能局限在商品房，还应包括其他不同类型房产，不仅扩大出售力度，还要加强出租供给，满足不同人群的多元需要。“通过供给侧改革，加大多种套型住宅供应量，有助于满足市场需求。”深圳招商房地产有限公司营销管理部经理助理吕蒙表示，“扩大供应是纾缓深圳住房旺盛需求的重要环节，深圳正通过公寓的融入增加居住类房屋的供应量，希望政府部门多措并举推动房地产市场良性健康发展。”今年2月，深圳发布《关于商务公寓、宿舍配建燃气管道设施问题的通知》，明确允许新建和已建成的商务公寓、宿舍项目可使用燃气管道，这使得商务公寓向居住产品更近一步。今年深圳还提出将多渠道增加租赁住房供应，特别是建设筹集租赁住房10万套，规范城中村房屋租赁规模化改造，提升居住品质。同时将加大力度整顿租赁市场秩序，推进行业信用体系建设，探索建立“负面清单”和“黑名单”制度，合理调控租金水平，优化升级租赁平台。宋丁表示，从2021年工作计划来看，除了着力稳控住房价格、加大住房供应等措施，深圳还将加快完善“1+3+N”住房政策体系、推进“全国完善住房保障体系试点城市”建设、推进公积金特区立法等，展现了深圳解决住房供需不平衡问题的决心。</t>
-  </si>
-  <si>
-    <t>深圳向炒房说不</t>
-  </si>
-  <si>
-    <t>我国有能力应对国际粮价上涨挑战 本报记者 刘 慧去年以来，受新冠肺炎疫情影响，全球粮食价格和食品价格一路上扬，2021年仍呈全面上涨态势。全球粮食价格和食品价格上涨是否会影响中国粮食安全？会不会引发全球性粮食危机？中国能否保障粮食安全？多位专家在接受经济日报记者采访时表示，全球粮食和食品价格上涨对国内粮食市场影响十分有限，我国粮食连年丰收，粮油库存充足，有能力保障市场粮油充足供应，但也需要采取措施避免全球粮价上涨可能带来的输入性通货膨胀。国际粮价上涨对我国影响有限世界银行数据显示，2020年全球食品价格总体上涨20%，进入2021年，多数国家主要农产品价格总体仍处于上升通道。联合国粮农组织编制的世界谷物价格指数从去年6月以来连续9个月上涨，今年2月份达到116点，是2014年以来的最高水平。与全球食品价格大幅上涨形成鲜明对比的是，2020年以来，我国食品价格上涨幅度要小得多。国家统计局数据显示，在2020年居民消费价格指数中，粮食类价格指数小幅上涨1.2%，猪肉价格指数强势上涨49.7%。2021年1月至2月，猪肉价格下降9.6%，粮食价格上涨1.5%。“食品价格在居民消费价格指数中占比较大，猪肉、粮食等重要农产品价格涨跌势必会影响居民消费价格指数。”中国农业大学经济管理学院教授武拉平说。随着国内外粮食市场深度融合，国内外粮价联动性增强，但我国进口粮食占国内粮食产量比重较小，国际粮价上涨对国内粮价影响有限。据中国海关数据显示，2020年进口小麦、玉米和稻谷分别占国内产量的6.24%、4.33%和1.39%，高粱、大麦、玉米酒糟等玉米替代品进口量不大，难以对国内粮食市场产生较大影响。而且，我国对小麦、大米和玉米实行进口配额管理，设这道“防火墙”在一定程度上能够阻断国际粮价上涨对国内市场的冲击。与三大主粮有所不同，大豆、油菜籽和植物油市场对外开放程度相对较高，进口数量较大，国内外市场联动性强。据农业农村部数据，2020年大豆进口突破1亿吨，油菜籽进口311.4万吨；棕榈油、葵花油、红花油、菜油、豆油等植物油进口合计超过1100万吨。受国际大豆、油菜籽以及棕榈油、菜油等植物油价格强势上涨的影响，国内食用油价格全线上涨，间接影响国内食物价格和粮食价格。“不过，我国油脂油料生产能力不断提高，有完善的粮油储备制度和多元化的油脂油料进口渠道，有能力保障食用油稳定供应。”国家粮油信息中心经济师郑祖庭说。“中国需求”并非国际粮价上涨主因本轮全球食品价格上涨是由糖和植物油等非粮食类食品价格强劲增长所致。据联合国粮农组织最新数据，2月份全球食品价格指数为116.0点（2014-2016年为基期），环比上升2.8点（2.4％），其中，糖指数环比上升8.6点，植物油指数环比上升6点，谷物、乳制品和肉类指数环比上升分别为1.5点、1.9点和0.6点，上涨幅度不大。与糖和植物油价格强势上涨相比，国际粮价上涨虽然对食物价格上涨的影响相对较小，但也不容忽视。从粮食价格走势看，全球高粱、玉米等饲料粮价格上升较快，小麦和大米等口粮价格上涨幅度相对较小。据联合国粮农组织最新数据，2月份，国际高粱价格环比上涨17.4%，同比上涨82.1%，进入3月份后仍在上涨；国际玉米价格环比上涨0.9%，同比上涨45.5%，进入3月份后仍小幅上涨；国际小麦价格同比上涨19.8%，国际大米价格小幅上涨。作为世界粮食进口大国，“中国需求”并非是导致本轮全球粮价上涨的主要原因。我国小麦、大米、玉米三大主粮进口量占全球贸易量的比重很小，占全球产量的比重就更小。据世界贸易组织和联合国粮农组织数据，2020年我国进口小麦、玉米、稻谷分别为838万吨、1130万吨和294万吨，分别占全球小麦、玉米和稻谷产量的1.09%、0.98%和0.58%，占贸易量的4.49%、4.91%和6.13%，总体看，我国谷物进口量占全球谷物产量的0.9%左右。武拉平认为，供给推动、需求拉动、疫情影响预期和全球流动性泛滥是影响粮价上涨的主要因素。从供给看，全球谷物产量实现了三连增，目前谷物库存量维持在8亿吨以上，预计2021年底达8.11亿吨。持续增长的产量和稳定的库存是全球粮食市场稳定的基础。从需求看，全球口粮和饲料粮需求相对稳定，传统加工用粮需求变化不大。在全球供需基本面没有发生根本性变化的情况下，疫情传导或强化粮食涨价预期、国际资本投机炒作以及全球流动性泛滥才是引发本轮国际粮价上涨的主要原因。综合施策保障粮市稳定对我国而言，国内粮食供求关系是决定国内粮食市场稳定与否的根本。从目前来看，我国粮食总产量连续6年稳定在1.3万亿斤以上，粮食库存处于较高水平，支撑粮价大幅上涨的条件并不充分。武拉平认为，今年要继续多措并举保证国内粮食供给，确保市场平稳运行，以应对国际粮价上涨带来的输入性通胀风险。今年《政府工作报告》明确提出粮食综合生产能力保持在1.3万亿斤以上的工作目标，释放出稳产增产的强烈信号。在粮食进口规模不断增加的情况下，一方面要改变进口来源渠道过于集中、粮食进口话语权相对较弱的问题，开辟多元化进口渠道，培育国际大粮商，增强粮食进口供应链管理能力，稳定大豆、玉米及其替代品进口；另一方面要通过适度进口食用油和其他蛋白饲料原料，减缓对进口大豆的过度依赖。我国有完善的粮食储备制度和应急保障机制，政府相关部门应密切监测粮食市场波动。据国家粮食交易中心数据，今年1月份以来，国家有关部门共组织25次国家政策性粮食拍卖。3月份开始，有关部门组织了多轮储备玉米拍卖，二季度我国将进入储备玉米轮库拍卖季节，这对稳定玉米市场有重要作用。从消费趋势看，我国粮食消费需求总量增长，但口粮消费需求下降，饲料粮和工业用粮需求增长，饲料粮短缺成为粮食安全的主要矛盾。为此，要积极发展饲料粮生产，开辟更多饲料来源，发展高粱、大麦、饲草生产，充分利用玉米酒糟等食品加工行业的副产品；适当增加肉类和乳制品进口；严厉打击投机炒作、囤积居奇等行为，力保饲料粮的正常需求。</t>
-  </si>
-  <si>
-    <t>我国有能力应对国际粮价上涨挑战</t>
-  </si>
-  <si>
-    <t>贵阳3月30日电 (周燕玲 蒲文思)3月30日晚，贵州茅台酒股份有限公司(简称“贵州茅台”)对外公布的2020年年度报告显示，2020年贵州茅台实现营业收入949.15亿元(人民币，下同)，同比增长11.10%；实现归属于上市公司股东净利润466.97亿元，同比增长13.33%。同时，贵州茅台还公告了董事会通过的利润分配方案，以2020年年末总股本125,619.78万股为基数，对公司全体股东每10股派发现金红利192.93元(含税)，共分配利润242亿余元。据统计，此次分红再次创造了贵州茅台上市以来的分配记录。据年报显示，“十三五”时期茅台酒技改项目全面完成投产，新增茅台酒基酒设计产能4,032吨；3万吨酱香系列酒技改项目有序推进，新增系列酒基酒设计产能4,015吨；完成固定资产投资21.72亿元。这些硬件投入的完成，将为其在“十四五”期间实现“高质量发展、大踏步前进”打下良好基础。谈及2021年，贵州茅台方面列出两大经营目标：一是营业总收入较上年度增长10.5%左右；二是完成基本建设投资68.21亿元。(完)</t>
-  </si>
-  <si>
-    <t>2020年贵州茅台实现营业收入949.15亿元</t>
-  </si>
-  <si>
-    <t>中新经纬客户端3月31日电 (冯方)今日(31日)24时，国内成品油新一轮调价窗口将开启。机构普遍预测，本轮国内油价大概率下调，这将是今年以来国内油价首次下调。按小型私家车50L油箱测算，加满一箱油将少花10元钱。资料图。中新经纬 万可义 摄本轮计价周期内，国际油价走势震荡。中宇资讯分析师孟晓指出，美债收益率暴涨、美元拉升降低原油资产吸引力，与此同时欧洲疫情卷土重来的担忧也加压原油市场，周期初始原油下行走势初显。苏伊士运河堵塞事件及德国放弃复活节封锁计划的消息给予多头炒涨机会，消息消化之后再次回归正常状态。卓创资讯分析师赵颖也表示，需求端“市场对原油需求担忧加剧”和供应端“苏伊士运河受阻”造成国际油价反复，不过，苏伊士运河受阻是短期突发事件，仅能对原油供应预期造成影响，不能改变全球原油市场供需格局。北京时间3月30日凌晨，国际油价上涨，WTI 5月原油期货结算价涨0.59美元，报61.56美元/桶，涨幅0.97%；布伦特5月原油期货结算价涨0.41美元，报64.98美元/桶，涨幅0.63%。新华社报道称，当地时间29日，搁浅重型货轮成功脱困，苏伊士运河已于当地时间29日18时(北京时间24时)恢复通航，埃及苏伊士运河管理局主席乌萨马•拉比耶表示，苏伊士运河有望在4天内恢复正常通行。另据路透中文网报道，消息人士周一表示，在新一波抗疫封锁下，沙特阿拉伯准备支持将OPEC+的减产措施延长至5月和6月，并准备扩大自己的自愿减产措施，以提振油价。孟晓分析称，如沙特减产，供给端将维持相对紧缺的状态，原油价格就不存在大幅下行基础；需求方面来看，目前疫情对于价格的消极影响并非十分明显，疫情得到控制后对于原油价格攀升也将产生一定支撑作用。此外，隆众资讯指出，虽然苏伊士运河堵塞已基本解决，但市场认为航道完全恢复正常尚需时日，且OPEC+可能将当前减产规模延续至5月，国际油价继续上涨。据卓创资讯测算，本轮计价周期第9个工作日参考原油变化率为-4.73%，对应汽柴油下调230元/吨，距离调价窗口开启还有1个工作日，本次下调已成定局。按目前幅度计算，预计92#汽油和0#柴油的降价幅度在0.2元左右，加满一箱50L的92#汽油预计将节省10元左右。中新经纬客户端注意到，2020年国内成品油价格以“四连涨”收官。进入2021年，国内油价已“五连涨”。累加2020年末调价，国内油价自现行调价机制2013年春天执行以来，首次“九连涨”。如此次下调兑现，国内成品油价格将出现年内首次下跌。按照“十个工作日”原则，下一轮调价窗口将于2021年4月15日24时开启。隆众资讯分析师李彦表示，OPEC+可能将在4月初的会议上延长现有减产规模，全球经济数据仍有好转，预计下一轮成品油调价上调的概率较大。(中新经纬APP)中新经纬版权所有，未经书面授权，任何单位及个人不得转载、摘编以其它方式使用。</t>
-  </si>
-  <si>
-    <t>国内油价大概率年内首跌，加满一箱少花10元</t>
-  </si>
-  <si>
-    <t>北京3月30日电 (记者 周锐)中国国务院国资委副主任翁杰明30日在北京介绍说，中国区域性国资国企综合改革试验取得积极进展。区域性国资国企综合改革试验是中国国企改革重大专项工程，也是国企改革三年行动的重要改革任务。2019年7月，上海、深圳成为首批综改试验区，同时，沈阳被选择来开展国资国企重点领域和关键环节改革专项工作。翁杰明介绍说，目前，这项改革工作在完善体制、优化结构、激发活力上取得了明显成效。同时，也推动了非公经济的发展，实现了不同所有制经济的互利共赢、共同发展。一是在推动管资本为主的国资监管体制更加成熟定型上打造了样板。如，上海实行“直接监管+委托监管+指导监管”，直接监管企业资产、营收、利润占比均超过90%；搭建金融、运营和投资三个平台公司，初步形成“1+3+N”国资监管架构。二是在推动国有经济结构调整和国有资本优化配置上树立了典范。如，深圳围绕粤港澳大湾区、先行示范区建设，立足城市国资服务功能，以基础设施公用事业为主体、以金融及战略性新兴产业为两翼的“一体两翼”的国有资本格局基本形成。沈阳加快推进历史遗留问题基本解决，推进厂办大集体改革、国企退休人员社会化管理全面完成，实现“僵尸企业”基本出清。三是在健全市场化经营机制、激发微观主体活力上趟出了新路。上海根据市属企业不同功能分类，开展职业经理人薪酬制度改革，“一人一约”明确权利义务、业绩目标，健全差异化薪酬分配体系。深圳通过智慧国资绩效管理系统对国企领导人员进行“数字画像”，探索建立市场化薪酬体系。四是在推动国有经济与民营经济合作共赢、协同发展上发挥了重要作用。上海聚焦产业链、价值链与各类所有制企业实施开放型市场化联合重组，有效发挥国有企业管理规范与民营企业机制灵活两方面优势。专门设立纾困基金，缓解民营企业资金流动性紧张问题。深圳准确把握国企与民企的差异化定位，聚焦优化城市基础服务、完善创新生态系统，支持民营经济创新产业发展。国资系统牵头落实支持民营经济发展计划，设立千亿规模平稳发展基金，助力稳定产业链供应链。(完)</t>
-  </si>
-  <si>
-    <t>翁杰明：中国区域性国资国企综合改革试验取得积极进展</t>
-  </si>
-  <si>
-    <t>北京3月30日电 (记者 吴涛)记者30日获悉，北京秀水街将基于“京韵秀色”主题分楼层打造各具特色的“京范儿”购物体验，改造分楼层进行，从5月份开始分批亮相，预计7月全部调改完成，正式亮相。北京秀水街改造后局部效果图。供图在30日举行的秀水街3.0项目推介会暨招商启动会上，秀水街发布的《商业白皮书》全面阐释了秀水街3.0“中国新百货”的定位：秀水街坚持小店模式，接入中国本土品牌、产业带品牌，通过秀水街品牌背书，给予中小型商户品牌力支撑，创建平台型商业。另一方面，秀水街通过信息化手段和智慧商业模式，为商户赋能，解决部分厂商品牌只会生产不会销售等问题。据介绍，改造完成后，秀水街各楼层空间以“玉脂白/琉璃黄/青花蓝/中国红/长城灰”的传统色彩区隔，规划出“归市/探京/锦乡/成器/知味”五大主题模块，打造“京范儿”沉浸式购物体验。在业态规划上，秀水街基于现有分区进行动线优化和业态调整，补充餐饮、美妆、健身、美容美发、服装搭配等配套业态，丰富秀场、直播间等经营模式。秀水街董事长张永平称，秀水街3.0意味着秀水街将以“小而美”的姿态赋能实体商业，把秀水街模式、本土品牌的成功经验复制到全国乃至全世界，用中国好货、好设计惠及全球消费者。(完)</t>
-  </si>
-  <si>
-    <t>北京秀水街启动改造 拟打造“京范儿”购物体验</t>
-  </si>
-  <si>
-    <t>新华社南宁3月30日电(记者刘岭逸、杨驰)3月30日，柳州市工业旅游精品线路发布暨柳州螺蛳粉文化体验游首发仪式在广西柳州举行。本次活动共发布推介了工业遗址游、工业研学游、工业文博游、螺蛳粉文化体验游4个主题5条工业旅游精品线路。为满足大众多元化出游需求，此次活动特别推出了螺蛳粉文化体验游的主题线路，涵盖螺霸王螺蛳粉产业园、窑埠古镇螺蛳街(龙城阁螺乐园)等重要景区(点)，充分展示柳州螺蛳粉产业发展和文化科技创新的最新成果。柳州市文化广电和旅游局副局长黄才强表示，近年来，柳州市大力发展旅游产业，通过“旅游+工业”为全域旅游整合资源，丰富旅游产品体系、创新旅游业态，满足游客多元化需求，打造了柳州工业博物馆、螺蛳粉小镇等一批具有一定知名度和影响力的工业旅游景区。据了解，截至2020年底，预包装柳州螺蛳粉产销产值突破百亿元。下一步，柳州将持续推动工业旅游提档升级，促进工业经济高质量发展和文化旅游发展，推动“柳州螺蛳粉+旅游”深度融合。</t>
-  </si>
-  <si>
-    <t>广西柳州： 螺蛳粉产业成旅游新方向</t>
-  </si>
-  <si>
-    <t>广州3月30日电 (郭军 程立波 区湛樑)记者30日从中建三局广州分公司获悉，由该公司承建的广州设计之都项目目前进展顺利，将于2022年完工，届时将建成粤港澳大湾区设计产业集聚的国际品牌摇篮、华南首个“一带一路”设计服务贸易中心以及广州首个B2B设计服务共享平台。当日，设计之都项目召开“冲刺6.30·庆祝中国共产党百年华诞”动员大会。据悉，设计之都项目是广州市重点工程、“三旧改造”项目。该项目力争于今年6月实现首批C1、C2、C3三栋办公写字楼在6月30日率先交付投入使用。广州设计之都项目有序推进 许天鸿 摄广州设计之都项目建设内容包括商业办公综合体、定制化总部办公区、灵活办公区、大师工作室、景观绿化广场、室外工程及配套工程等。项目总建筑面积50余万平方米，位于粤港澳大湾区核心和广深创新科技走廊龙头位置。项目原址为黄边村级工业园，园区内多为汽修产业，部分是低端鞋业、制衣等旧厂房，不仅经济效益低，且存在安全隐患。自2019年9月1日项目正式开工以来，项目克服了新冠肺炎疫情、超长时间龙舟雨、地质条件复杂等诸多不利因素影响，率先在白云区复工复产，并在去年春节前完成首批十栋办公楼封顶目标，工程建设首战告捷。放眼望去，原本的工业园区不见踪迹，高楼大厦已初见雏形，旧改行动获得初步成果。“作为广州市白云区首个村级工业园改造项目，实现6.30节点，是设计之都项目助力白云区建设成为广州最好、最强、最有活力的区之一的重要阶段性建设成果，”中建三局广州分公司相关负责人表示。目前，广州设计之都项目C1、C2、C3三栋楼正紧张有序开展砌体抹灰施工，预计4月份进入幕墙施工环节，6月份完成园林绿化工艺，交付使用和投入运营。(完)</t>
-  </si>
-  <si>
-    <t>广州将建华南首个“一带一路”设计服务贸易中心</t>
-  </si>
-  <si>
-    <t>贵阳3月30日电 (周燕玲 蒲文思)中国(贵州)—韩国经贸及友城交流视频会议30日举行，中国贵州与韩国拟在农业、大健康、大数据等领域开展深度合作。目前，贵州已与忠清南道等韩国地方政府建立友城或友好合作关系，并先后合作举办中日韩地方政府三农论坛、中日韩茶叶企业家交流会等活动，为深化中韩地方务实合作、增进两国民众友谊作出了积极努力。图为活动现场图。周燕玲 摄贵州省外事办公室党组成员、贵州省友协专职副会长蒋红表示，近年来贵州与韩国的交流日益增多，期待以此次经贸及友城交流活动为契机，推动贵州与韩国相关地方政府、经贸组织及企业密切联系，不断加强经贸等领域深层次合作促进互利共赢，推动黔韩交流合作进一步走深走实。韩国驻成都总领事馆总领事李光镐说，贵州不仅生态环境优良，还是中国经济增长最快的省份之一，通过“云上”视频交流的方式可以让更多韩国企业和韩国民众了解贵州，助推两地企业深度合作。中国已成为韩国最大贸易伙伴、最大出口市场和最大进口来源国。目前贵州与韩国往来企业有150多家。在韩国贸易协会成都代表处首席代表高范瑞看来，韩国与贵州在中药材方面可以加强合作，因为韩国医疗美容技术先进，而贵州作为中国四大中药材主产区之一，品种多、蕴藏量大，希望协会能成为“桥头堡”为两地合作献计出力。此次会议，韩方共组织了12个韩国地方政府及经贸组织和11家韩国企业代表参会，韩国企业代表希望在辣椒、食用菌以及茶叶等方面与贵州进行深层次合作。(完)</t>
-  </si>
-  <si>
-    <t>中国贵州与韩国“云上”探讨多领域合作</t>
-  </si>
-  <si>
-    <t>南宁3月30日电 (翟李强 林浩)中国西部边境省区广西30日同时开工建设多个高速公路项目，加快推动区域经济融合发展，助推乡村振兴战略实施。当天，广西举行2021年第一季度重大项目集中开竣工活动，总共推出294个涵盖工业、新兴产业、交通、文旅等多个领域的重大项目，总投资2360亿元(人民币，下同)，年度计划投资210亿元，这批项目开工建设将进一步增强广西投资发展后劲。梧州-玉林-钦州高速公路(苍梧至容县段)、百色市南北过境线公路、天峨(黔桂界)至北海高速公路(凤山段)等多个高速公路项目是当天开竣工活动的重要内容之一。此间官方指出，前述高速公路项目建设将有利于形成环广西快速通道，加快推动当地区域经济融合发展，同时有力助推广西左右江革命老区以及乡村振兴战略的实施。由广西新发展集团投资145亿元建设的百色市南北过境线公路、河池(宜州)西过境线、柳州至金秀公路等3个高速公路项目，设计路线总长约92公里，建成后将提供超过4200个工作岗位。此外，总投资118亿元、连接广东的北流至化州宝圩高速公路(广西段)项目当天亦在北流市举行开工仪式。该项目建成后，将加强广西“东融”通道衔接，加快构建综合交通枢纽体系，改善区域交通运输条件，促进区域资源开发和经济社会协调发展。(完)</t>
-  </si>
-  <si>
-    <t>广西多个高速公路项目动工 助推乡村振兴发展</t>
-  </si>
-  <si>
-    <t>南宁3月30日电 (翟李强)西部陆海新通道甘肃张掖—重庆—北部湾班列、“防城港—怀化”集装箱班列30日成功首发，西部陆海新通道“朋友圈”再增新成员。当天，西部陆海新通道甘肃张掖班列从甘肃省物产集团旗下捷安物流园首发，一路向南，预计3天后到达重庆，5天后抵达广西北部湾港钦州港区，然后再搭乘班轮运往巴基斯坦卡拉奇港。此趟班列搭载货物为兰州国际陆港商贸有限公司外贸服装，由陆海新通道运营甘肃有限公司负责发运，在通道运营中心——陆海新通道运营有限公司配合下，按照“统一品牌、统一规则、统一运作”模式完成班列操作，为西部内陆地区开辟了新的国际贸易通道。同日，一列拉着50个铁路集装箱，满载1200吨玉米的货运班列，从北部湾港防城港港区驶向湖南怀化，西部陆海新通道“防城港—怀化”集装箱班列成功首发。此前2月5日，“怀化—北部湾港”下行海铁联运班列已宣布开通。湖南怀化及周边地区的饲料工厂，每年对粮食的需求量达100万吨以上。北港物流和广西北部湾联运公司依托港口优势，开通“防城港—怀化”集装箱班列，与“怀化—北部湾港”下行班列形成货源对流，从东盟地区进口的粮食能够更便捷发往怀化，而北方的粮食也能海运至防城港，罐箱后通过西部陆海新通道集装箱班列运输至怀化。截至3月28日，2021年西部陆海新通道海铁联运班列到发合计1260列，同比增长85%，新增海铁联运站点6个，站点已覆盖中国9省(自治区、直辖市)27市59个站。(完)</t>
-  </si>
-  <si>
-    <t>西部陆海新通道甘肃张掖班列首发</t>
-  </si>
-  <si>
-    <t>广州3月30日电 (记者 郭军)3月30日，广州空港跨境电商国际枢纽港创新发展论坛在广州成功举行。记者从论坛上了解到，跨境电商作为广州空港核心产业之一，近年来集聚效应正不断增强。2020年广州空港跨境电商业务量与进出口货值双双实现上涨，其业务量已连续7年居全国空港首位。全球跨境电商产业领军企业、行业协会、主管单位等50余名领军人物和产业高端人士出席了当天的论坛，共话广州空港跨境电商发展新活力。据了解，广州白云机场综合保税区是广州跨境电商综合试验区的核心片区，也是粤港澳大湾区首个综合保税区。广州白云机场综合保税区自2014年封关运作以来，通过实施优化产业布局、加大招商力度、改善营商环境等举措，推动跨境电商产业加速升级，在全国范围实现引领式发展。2020年广州空港跨境电商业务量与进出口货值双双实现上涨，累计验放电子清单约1.3亿票，货值约367亿元，同比分别增长17.2%和119.8%，其业务量已连续7年居全国空港首位，是国内跨境电商业务模式最丰富、最灵活的区域。3月30日，广州空港跨境电商国际枢纽港创新发展论坛在广州成功举行 广州空港委供图目前，该区跨境电商商品备案项数超过10万种，已大规模开展1210BBC进口、9610B2C进出口、9710B2B出口和9810出口海外仓等多种跨境电商业务。根据产业发展布局，该区已引进苏宁跨境电商全国枢纽项目、宝能集团广州空港跨境电子商务产业园、广州香雪空港国际医药物联网中心、唯品会广州空港跨境电商运营总部、广州空港大湾区跨境电商产业园、跨境电商孵化基地等项目，项目总投资额超150亿元，预计2021年年底前全部封顶，全部建成后将释放超过100万平方仓储、作业和办公配套，为跨境电商开拓业务提供充足的发展空间，项目达产后年产值超过150亿元。广州白云机场综合保税区是全国少有的包含机场口岸操作区、实现“区港一体化”运作的综合保税区之一，规划总面积2.943平方公里，中区和南区均已启用运营，区内全面复制推广广东自贸试验区的先行先试监管政策，具有保税加工、保税物流、保税服务等核心功能。目前，该区已启用中欧班列保税物流集散中心和跨境电商全球集采中心，不仅实现白云机场与中欧班列物流通道的有效衔接、促进企业总成本降低52%，还为跨境电商全链条实现平台数据化、现代化管理，有助于进一步扩大跨境电商企业生产和销售规模。未来，该区将重点打造成为粤港澳大湾区跨境电商国际枢纽港。(完)</t>
-  </si>
-  <si>
-    <t>广州空港跨境电商进出口业务量连续七年稳居全国空港首位</t>
+    <t>消费者对汽车的感知不再满足于出行需求，智能且安全的下一代网联汽车市场正成为主流。以人工智能为核心的软件技术是否决定下一代汽车产业的发展？如何减少交通事故、提高通行效率和安全系数？从“自动化”到“智能化”，汽车产业还有多少路要走？近日，CETC普华基础软件股份有限公司总经理刘宏倩接受媒体采访时称，下一代汽车将更多取决于软件所设计的功能，汽车的安全性则更多取决于软件和硬件的安全设计。安全——汽车产业硬指标近日，主题为“让技术尊重生命”的2020首届汽车功能安全日活动在线上举行，中国汽车电子基础软件自主研发与产业化联盟(CASA联盟)作为主办单位，意在通过对ISO 26262、AUTOSAR等与汽车安全、软件息息相关的标准解读，倡议汽车行业从软件到芯片、零部件、整车企业等全产业链，关注汽车电子产品的功能安全设计、开发和验证，推动汽车安全水平的提高。作为CASA联盟的秘书长单位，普华基础软件是这场特殊线上活动的独家承办方。刘宏倩介绍说，中国目前已是全球最大的汽车生产国和汽车市场，在未来汽车发展所需要的基本能力中，安全尤为重要。“这个活动的主题本身就是汽车人对生命至上的庄重诠释。”国家市场监督管理总局缺陷产品管理中心发布的最新数据显示，截至2019年年底，我国累计实施汽车召回1992次，涉及缺陷车辆7578.01万辆，生产者因召回而投入直接费用总计约580亿元。专家表示，缺陷汽车产品已经严重威胁到汽车消费者乃至整个社会公众的生命与财产安全，汽车产品的功能安全问题往往最易被忽视。CASA联盟秘书长张晓先倡议，汽车生态链的所有企业应关注功能安全产品的需求规划、设计、实施、集成和验证，开发有效的系统安全架构,确保及时探测到潜在风险并可靠执行安全缓解机制,提升企业对车辆安全性能的不断追求，唤起社会对汽车功能安全的重视。“目前，新能源汽车的电机、电池系统与传统内燃发动机的技术存在较大差异。在国产汽车电子控制系统不断发展的同时，也需要有更加安全的软硬件产品提供基础性支撑。”著名计算机软件专家、中国科学院院士何积丰指出，作为推动新一轮科技革命和产业变革的重要力量，中国要从汽车制造大国向制造强国转变，符合标准的核心技术是当前我国汽车产业发展的关键。趋势——软件定义互联汽车今年2月，国家发改委、科技部、工信部等11部委联合发布了《智能汽车创新发展战略》，对汽车产业智能化、网络化、平台化发展提出了具体任务和发展方向。业内人士认为，技术融合将带来汽车生态链的全局变革，从设计开发到生产应用，以人工智能为核心的软件技术将成为下一代汽车产业的发展过程中重要一环。面对自动驾驶及智能网联汽车的安全与可靠性要求，国际主流汽车厂商的技术路线是通过基于AUTOSAR标准的扩展，在车控操作系统的基础上从分布式的单功能ECU向相对集中的功能域控制器、车辆计算平台方向发展。目前，欧洲所有OEM整车厂均要求功能安全，美国的OEM整车厂已在研究如何实施功能安全，而亚洲的丰田、吉利等车厂也已经明确要求汽车功能安全。今年5月初，普华基础软件基于AUTOSAR规范自主研发的“普华灵智ORIENTAIS 操作系统”产品通过ISO 26262 ASIL-D级最高安全级别认证，成为国内第一家达到国际汽车领域最高安全等级的AUTOSAR操作系统企业，填补了国内汽车电子技术在这一领域的空白。未来，该系统在国内汽车领域的大规模应用将降低车辆可能发生的风险及意外发生时的危害程度，进而使国内汽车厂商提升国际竞争力。人工智能、大数据、云计算等新一代信息技术对汽车产业发展产生了革命性的影响。现如今，自动驾驶、无人驾驶汽车更加对芯片、软件架构、计算平台等提出了更高的要求，软件定义汽车的价值也更加显现。“从软件的角度，汽车软件从预装系统时代到基于环境的学习、迭代、优化的智能系统时代，让汽车在行驶过程中，学习到对驾驶员的期望，然后不断迭代优化车辆的算法，在安全环境下慢慢去适应，并变成一辆最适合于驾驶员的车。”刘宏倩说。“如果要做到这样的方向，前提是标准化的硬件加上变化的软件才会实现各种不同的功能。在标准化硬件上面软件要进行迭代和优化，对软件从架构设计、功能安全到信息安全三个方面都将会是新的挑战。”刘宏倩称，普华作为中国电子科技集团(CETC)的重要基础软件平台，已经开始设计下一代汽车电子操作系统，支持复杂环境感知、智能算法决策、实时安全控制、基于服务的以太网通信、软件远程升级等功能，为软件定义汽车提供基础支撑。市场——产业创新机制建设《智能汽车创新发展战略》明确提出，要构建质量安全、功能安全防控体系，加强产业链关键环节安全联动、网络安全、数据信息安全等机制建设。到2025年，中国标准智能汽车的技术创新、产业生态、基础设施、法规标准、产品监管和网络安全体系基本形成。实现有条件自动驾驶的智能汽车达到规模化生产，实现高度自动驾驶的智能汽车在特定环境下市场化应用。持续发展的自适应自治系统和自适应控制技术正在成为汽车产业创新发展的关键课题，传统车载嵌入式软件架构和操作环境需要不断升级，以满足日益增长的下一代系统需求。尽管现代实时操作系统可以处理安全认证的多核应用程序，但尚无法满足下一代网联汽车的要求。围绕汽车产业生态，建立一套全产业链的创新机制在当下显得格外重要。早年间，普华基础软件开始和国内整车企业联合承担国家“核高基”任务，逐步建立了国产汽车电子基础软件、国产汽车电子控制系统的自主创新能力。2016年，CASA联盟成立国内汽车行业的首个原创性开源社区，开放汽车电子基础软件平台的核心源代码，进一步推动了国内汽车电子产业的技术进步和行业合作。据悉，作为 AUTOSAR组织高级合作伙伴，普华先后参与了软件体系架构、操作系统、通信、符合性测试等标准制定工作，是目前国内唯一可以提供完整AUTOSAR基础软件平台解决方案的中国本土技术服务提供商。刘宏倩说，依托中国电子科技集团(CETC)的大产业格局，普华不仅和中外半导体芯片、工具企业建立了合作关系，也已经和整车企业、零部件企业、互联网科技企业、信息通信等企业合作，不断扩展延伸基础软件的价值链。“事实上，在中国汽车市场从粗放式增长向结构化增长转变的新阶段，要求产业链各环节对汽车控制系统及其软件的安全性与可靠性提供保障，开发更安全、更高质量的产品。随着智能网联汽车的创新发展，除了功能安全，也开始提出了信息安全的需求。面对信息安全需求，需要开发端到端通信安全协议、车规密码服务等安全产品，逐步实现较完整的整车级纵深防御信息安全体系。”刘宏倩最后说。周建明</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>从“自动化”到“智能化” 谁来定义下一代汽车产业？</t>
+  </si>
+  <si>
+    <t>长春7月9日电 (郭佳)中国一汽红旗工厂新车间交付暨红旗H9量产仪式9日在吉林长春举行。中国一汽集团表示，新车间投产和红旗H9量产将为完善红旗产品布局、达成全年20万辆目标、推进红旗品牌实现高质量跃迁成长提供强有力支撑。据介绍，红旗工厂新车间深度融合了工业化、信息化技术，在中国国内首次使用了全自动天车、机器人喷蜡等先进智能装备，创新应用了身份识别、预测性维护等数字化技术。作为新工厂正式投产的第一款车型，红旗H9集成了红旗品牌在造型设计、驾乘体验、智能网联等领域的最新技术成果。长春市副市长、长春汽开区党工委书记王海英表示，将举全市之力支持中国一汽创新发展，支持红旗品牌做大做强。“建设长春国际汽车城，打造万亿级汽车产业集群是最有力的服务举措。”中国一汽董事、党委副书记秦焕明表示，要早日把“红旗”打造成中国汽车产业豪华品牌标杆，为振兴民族汽车工业、为吉林省和长春市经济社会发展作出新的更大贡献。(完)</t>
+  </si>
+  <si>
+    <t>中国一汽红旗工厂新车间交付 量产最新技术车型</t>
+  </si>
+  <si>
+    <t>客户端北京7月30日电 “当前，亦庄迎来了区域发展的第三个阶段，也就是北京总体规划中提出来的，对接三城做好一区，这意味着亦庄未来是承接三城的利好资源，整体发展是朝着更加国际化、高端化，产城融合的高品质发展。”清华同衡规划设计研究院、城市发展策划研究所所长彭剑波29日在台湖区域价值论坛如此表示。以“亦庄东扩 台湖热土进行时” 为主题的台湖区域价值论坛现场。2019年11月，北京市政府批复了朝阳、海淀、丰台、石景山、门头沟、房山、顺义、大兴、昌平、平谷、怀柔、密云、延庆分区规划(国土空间规划)及亦庄新城规划(国土空间规划)作为区级国土空间总体规划。亦庄新城规划属于特定地区规划，规划范围包括亦庄新城的大兴部分及通州部分，空间布局“一廊一带三中心”。北京经济技术开发区管委会统一规划和开发建设亦庄新城，积极对接三大科学城，打造高精尖产业主阵地，加大科技创新与产业、城市发展的融合力度，以智慧服务促进技术创新。根据《亦庄新城规划(国土空间规划)(2017年-2035年)》，亦庄新城的范围扩区至约225平方公里。原本处于通州区的台湖，归属为亦庄新城。这意味着，台湖在承接城市副中心通州的同时，正式纳入亦庄新城经济管辖。亦庄新城规划明确，台湖作为亦庄新城空间布局规划“一廊一带三中心”中的科技金融创新中心，重点作为亦庄开发区的产业承接重点发展科技服务业、金融服务，建设有利于技术创新和产业发展集聚的地区创新中心。北京市房协副会长陈志在论坛上表示，亦庄新城规划发布，基于亦庄的发展战略以及台湖特殊的区位优势、天然的规划基因和连接属性，使得亦庄东扩至台湖成为发展必然。而从2020年初开始，实质性的权利层面也有了进一步推动，包括税收、拆迁权、不动产登记等逐渐转移，也证明了亦庄规划正在逐渐落地。基于先天区域及轨交的前置规划，台湖形成了独特的TOD发展模式，区域内实现了先规划后发展。彭剑波提到，台湖通过两站一街TOD发展模式的规划，台湖可以更好地实现都市化和国际化，依托立体轨道交通，通过京津等几大高速，很快融入到跟CBD互动，包括主城区和副中心，另外通过S6号线连接了双机场，优质的轨交发展让这个区域更有活力和动力。“台湖的两站一街规划发展，未来会形成多元融合和多重活力共生的美好生活场景，每一个TOD站点都成为城市活力的节点，实现街区和城市的高度融合，实现职住平衡与产城融合。”彭剑波称，不管是从亦庄新城整体的规划定位，还是台湖科技金融创新中心的定位，台湖都已经迎来加速发展的新阶段。众多高新技术企业资源的引进、交通枢纽规划落地的同时，台湖也已经吸引到万科、泰禾、金茂、绿城等头部房企驻足。2月份，绿城以49.8%的溢价率竞得台湖一宗不限价宅地。而万科早在2012年便入驻台湖。截至目前，万科在台湖形成了住宅、办公、别墅、商业等多元业态，4万方新五街也已开业。2019年入市的万科城市之光·东望基于17号线首站的地铁优势，从住区体量、配套、IP运营、品牌APP搭建四个维度，打造地铁城市，融入科技生活，不断从未来生活角度出发提升人居环境。陈志建议，从行业的角度出发，希望开发商从TOD模式出发做城市运营商，城市发展角度更期待看到1公里的开发，1平方公里的城市级别视角的开发运营。只有对区域的深度理解才会有更合适的开发助力，在前期注入更多的参与，才会更能从人的生活角度去实现人居品质的需求满足，实现长周期的运营。(完)</t>
+  </si>
+  <si>
+    <t>房产</t>
+  </si>
+  <si>
+    <t>专家：北京亦庄迎来加速发展的新阶段</t>
+  </si>
+  <si>
+    <t>传统观念中，租房无非就是租客通过各种渠道找到房源并租住的行为。不过，作为长租公寓行业的知名品牌，蛋壳公寓在2020年不断开拓租住服务边界。仅今年上半年，就先后与货拉拉、顺丰快运、丁香医生、亚马逊海外购、御泥坊、喜马拉雅等12大品牌达成合作，为消费者提供更多的租房新体验和租住福利。与蛋壳公寓达成合作的这12大品牌涵盖了美妆、食品、医疗、购物、娱乐、出行等多个领域。其中，食品行业的品牌有Cakeboss、快买酒；购物行业有亚马逊海外购、多点；出行行业有租租车；美妆行业有御泥坊；休闲娱乐行业的品牌则有喜马拉雅、花点时间；健康领域的品牌有丁香医生和善诊，此外还有顺丰快运、货拉拉这样的拉货搬家品牌。他们都在各自的领域拥有领先的品牌优势和良好的口碑。对于当代城市青年而言，租房是他们无法绕开的话题。在职业发展的初期，繁重的工作让“两点一线”的生活变成常态。他们牺牲了自己的时间，没有娱乐放松的机会，业绩提升的同时，焦虑同时也找上门来。此外，对于许多2020年的应届毕业生来说，疫情的突然而至也打乱了他们原有的计划。企业宣讲会取消，现场答辩取消，无法参加毕业典礼……许多人最终只能拿到PS处理后的毕业照，甚至如何取回放在宿舍的物品都成了难题。正是看到了这种现状，蛋壳公寓在日常推出的租房优惠活动基础上进行了不断尝试，与跨行业的品牌积极合作，将租住生活的方方面面进行深度捆绑。除了为租客提供租金优惠的同时，蛋壳公寓加入了更多体贴化的生活服务，给租客送去更多的福利补贴。今年毕业季，蛋壳公寓联合顺丰速快运、货拉拉推出的“一键式离校”活动，为后疫情时代的毕业生们送上百元大件邮寄礼包和百元搬家优惠礼包，兼顾同城和城际运输的同时，真正把效率与性价比有效结合了起来。针对平日工作繁忙的上班族，蛋壳公寓联合租租车平台，推出了“先领券、再下单”活动，让郊游、短途旅行变得更加划算。除此之外，蛋壳公寓还和快买酒进行合作，送出红酒折扣、啤酒代金券等多重福利，让上班族的周末小聚变得更加划算。蛋壳公寓在租房市场中打出了一记组合拳，让租房与生活深度绑定，不仅降低了租客在日常生活中的选择成本与决策成本，并让租客在工作中的压力得到有效释放。更关键的是，蛋壳公寓此举打破了人们对租房的认识，这种“一站式”服务或将是租房服务的全新定义。据了解，蛋壳公寓成立于 2015 年初，是一家以数据驱动为核心，提供高品质租住生活的资产管理和居住服务平台，产品形态涵盖合租公寓、整租公寓等，满足都市年轻白领多元化的居住需求。创立至今五年多时间，已进入北京、上海、广州、深圳、苏州、杭州、天津、武汉、南京、成都、无锡、重庆、西安13地市场。2020年1月17日，蛋壳公寓在纽约证券交易所正式挂牌上市，成为2020年登陆纽交所的中国第一股。(蛋壳公寓供稿)</t>
+  </si>
+  <si>
+    <t>联手12大品牌跨界合作，蛋壳公寓重新定义租房生活</t>
+  </si>
+  <si>
+    <t>7月28日电 27日，财富中文网发布2020年度《财富》中国500强排行榜。其中，碧桂园集团以4859.08亿元的营业收入维持第19名，位列房地产行业榜第一。《财富》中国500强排行榜，考量了全球范围内最大的中国上市企业在过去一年的业绩和成就，由世界著名的财经杂志《财富》与中金公司财富管理部合作编制，是衡量中国上市企业发展状况最著名、最权威的榜单之一。今年500家上榜的中国上市公司总营业收入达到50.5万亿元人民币，较去年增长11%；净利润达到了4.2万亿元，较去年增长超16%。今年上榜公司的年营收门槛接近178亿元，相比去年提升了近10%。去年中国GDP突破99万亿元，这意味着榜上500家上市公司的收入总和超过了中国当年GDP的一半。地产行业是入榜公司最多的行业，今年共有53家地产公司上榜，收入总额达到4.5万亿元，较去年的3.7万亿元有显著增长。随着地产行业开始进入存量时代，碧桂园顺应行业发展大势，行稳致远、稳健经营，业绩获得持续稳定增长。年报显示，2019年碧桂园实现归属公司股东权益的合同额约人民币5522亿元，实现总收入约4859.1亿元，同比分别增长10%和28.2%，持续领跑行业。今年5月，《福布斯》2020年上市公司2000强榜单发布，碧桂园集团位列第111名，较2019年排名上升18位。当前，碧桂园已获国际权威信用评级机构——惠誉给予投资级的BBB-企业信用评级，标普及穆迪也分别给予碧桂园BB+及Ba1评级，距投资级均只有一级之遥。2019年8月，穆迪又将对碧桂园的展望由“稳定”调升至“正面”，反映出市场对于碧桂园未来发展的信心。</t>
+  </si>
+  <si>
+    <t>2020年《财富》中国500强发布 碧桂园位列房地产行业第一</t>
+  </si>
+  <si>
+    <t>7月27日电 27日，北京市住建委网站刊发关于放开我市住宅小区室内装饰装修活动的通告(以下简称通告)。通告指出，北京市全面放开住宅小区室内装饰装修活动。通告指出，相关工作按照《住宅室内装饰装修管理办法》(建设部令第110号)和《北京市环境噪声污染防治办法》(北京市人民政府令第181号)的有关规定执行。通告并称，进入住宅小区的装饰装修人员，按照北京市新冠肺炎疫情防控关于社区、小区出入管理的要求执行。</t>
+  </si>
+  <si>
+    <t>北京：全面放开住宅小区室内装饰装修活动</t>
+  </si>
+  <si>
+    <t>东莞凌晨九条新政调控楼市：外地人停售三套房，住房3年限售7月25日凌晨零点，广东省东莞市住房和城乡建设局联合11个部门发布《关于进一步促进我市房地产市场平稳健康发展的通知》，通知发布9条新调控政策，其中重点包括：调整商品住房限购政策，非本市户籍居民家庭在本市购买第一套商品住房的(新建商品住房或二手商品住房，下同)，须提供2年内连续1年以上社保证明；购买第二套商品住房的，须提供3年内连续2年以上社保证明，暂停向其销售第三套商品住房。此外，通知规定，自本通知施行之日起在本市行政区域内购买的商品住房(以网签时间为准，含新建商品住房和二手住房)，须取得不动产权证满3年后方可交易转让。通知7月25日起立即执行。此前7月24日，中共中央政治局常委、国务院副总理韩正主持召开房地产工作座谈会，北京、上海、广州、深圳、南京、杭州、沈阳、成都、宁波、长沙等10个城市人民政府负责人参加座谈会。韩正强调，要全面落实城市政府主体责任，发现问题要快速反应和处置，及时采取有针对性的政策措施。关于进一步促进我市房地产市场平稳健康发展的通知为切实贯彻落实党中央、国务院决策部署，坚持“房子是用来住的，不是用来炒的”定位，进一步强化房地产市场调控城市主体责任，经市人民政府同意，现就相关事项通知如下：一、加大住宅用地和住房供应力度加大住宅用地供应力度，适当提高新增国有建设用地中住宅用地供应比例，优先满足住宅用地需要，缓解住房供需矛盾。积极创新体制机制，着力突破城市更新项目周期长、进展慢的瓶颈，增加住宅用地有效供应。加强住房区域协调和城乡统筹，促进区域轨道交通等基础设施互联互通和教育医疗等公共服务设施对接，引导人口和住房需求合理分布。协同推进稳地价稳房价稳预期，优化住宅用地差别化限地价出让方式。加大安居房配建力度。原则上要求新供应住宅用地项目、政府主导城市更新住宅项目配建不少于住宅计容建筑面积 10%的安居房，用于人才住房等用途。试点建设“三限房”，在房价较高的热点区域选取符合两规、条件成熟、配套完善的地块，建设“ 限地价、限房价、限购买人群”的住房项目。二、调整商品住房限购政策自本通知施行之日起，非本市户籍居民家庭在本市购买第一套商品住房的(新建商品住房或二手商品住房，下同)，须提供购房之日前2年内在本市逐月连续缴纳1年以上社会保险证明；购买第二套商品住房的，须提供购房之日起前3年内在本市逐月连续缴纳2年以上社会保险证明。非本市户籍居民家庭在本市行政区域内拥有2套及以上商品住房的，暂停向其销售商品住房。自本通知施行之日起，个人所得税缴纳证明不再作为购房资格审核材料。为做好与原有政策的衔接，在本通知施行之日前已连续缴纳个税满一年或两年的非本市户籍居民家庭，仍可按原政策规定购买首套或第二套商品住房。三、调整商品住房限转让年限自本通知施行之日起在本市行政区域内购买的商品住房(以网签时间为准，含新建商品住房和二手住房)，须取得不动产权证满3年后方可交易转让。四、调整住房公积金贷款政策对于异地缴存住房公积金的职工，在我市购房申请住房公积金贷款的，职工本人或其配偶须为本市户籍。五、加强商品住房价格监管密切监测商品住房销售价格，对于新建商品住房申报销售价格明显超出周边市场价格水平的，从土地成本、建安成本、 销售管理费用、税费、企业利润等方面进行全面核查，对定价超出行业公允水平又不能作出合理说明的，暂停核发预售许可证或暂不办理现售备案。六、规范房地产金融秩序继续严格执行差别化住房信贷政策，持续做好房地产金融风险防控各项工作，切实防范信贷资金违规流入房地产市场。强化房地产融资业务管理，将房地产贷款集中度过高和增速过快的银行列为重点监管对象。加强对银行等金融机构的监管，督促银行严格审核购房资金来源，严查严防挪用消费贷款及其他贷款用于购房。禁止非银行金融机构向个人提供购房贷款。严厉打击“高评高贷”行为，对参与“高评高贷”的评估机构、金融机构，依法依规追究相关机构和人员责任。七、规范房地产市场交易秩序加大联合查处力度，持续开展房地产市场秩序整顿工作，重点打击房地产领域捂盘惜售、价外加价、虚假宣传、恶意炒作、收“茶水费”等违法违规行为。对二手房市场操盘控价、抱团涨价、通过“阴阳合同”骗取贷款、将不具备交易转让条件的房源挂牌出售等恶意哄抬房价、扰乱市场秩序的行为从严查处。对相关参与机构、个人，依法依规采取约谈、暂停网签、停业整顿、取消从业资格、限制交易、列入个人征信不良记录等处理措施，涉嫌犯罪的移交司法机关处理。八、加大房地产信息公开力度进一步加强商品住房用地、房源、住房交易价格等信息公开，促进供需信息对接对称。定期发布全市已成交住宅用地的可售楼面单价平均数。适时公布存量房源和未来计划上市房源情况。定期公布全市各镇街(园区)新建商品住房和二手住房网签交易数据，适时公布各镇街(园区)有代表性的、成交活跃的二手房楼盘的网签交易信息，提高房价透明度，引导市场理性交易。九、加强宣传舆论引导加强房地产政策宣传解读工作，及时发布权威信息，回应社会关切。加强房地产信息发布规范管理，对虚假夸大、捏造散布不实言论、误导公众、违规发布房地产信息的行为，依法依规严肃处理。本通知自印发之日起施行，此前相关政策措施与本通知不一致的，以本通知为准。东莞市住房和城乡建设局东莞市不动产登记中心东莞市市场监督管理局东莞市互联网信息办公室东莞市住房公积金管理中心国家税务总局东莞市税务局中国人民银行东莞市中心支行中国银行保险监督管理委员会</t>
+  </si>
+  <si>
+    <t>东莞出新政调控楼市：外地人停售三套房，住房3年限售</t>
+  </si>
+  <si>
+    <t>刘道伟作（新华社发）一名学生在家中上网课。 新华社记者 刘 磊摄作为打破时间、空间限制的新型教育方式，在线教育近年蓬勃发展。今年以来受疫情影响，用户需求更是迎来井喷式增长，天眼查数据显示，截至10月份，今年在线教育企业新增8.2万家。另据《中国互联网络发展状况统计报告》，截至3月，中国在线教育用户规模已达4.23亿，较2019年6月增长82%。面对发展机遇，在线教育行业内侵权现象也接踵而至。如何保证在线教育版权不受侵害？这一话题引人深思。盗版泛滥的“重灾区”官网价值3000元的外语课程，有些网店只卖“9块9”，通过网盘即可保存；来自不同机构的文字资料被整合进“学习包”，点开链接就能下载……如今，这些现象越来越普遍，成为部分商家或个人增加流量、吸引消费者的手段。不少人提出疑惑：线下生活中，私自复制书籍内容并对外兜售，是侵权行为；那么，线上未经许可传播课程、资料是否侵权？“在线教育课程中的视频、课件、文字内容等一般属于《著作权法》中所述的‘作品’或‘录音录像制品’，受到《著作权法》保护。”中伦律师事务所合伙人赵刚律师接受本报记者采访时表示，上述行为构成侵权。赵刚指出，除此之外，在线教育行业还存在更多侵权形式：抄袭其他机构编撰的题库或者真题解析，形成本机构在线教学的教辅材料；在教学视频中穿插具有版权的影视及音乐作品；主讲人使用原单位为其录制的视频授课……传播者利用他人原创作品谋取私利，侵犯原作者复制权、信息网络传播权、放映权等，损害原创内容作者的正当权益。业内人士认为，盗版一直是社会顽疾，在线教育则是盗版泛滥的“重灾区”，长此以往，会妨碍行业健康发展，不利于营造全社会尊重版权的氛围。破解软件让人防不胜防北京互联网法院日前举行“在线教育知识产权相关问题研讨会”，好未来教育集团总法律顾问魏嘉介绍，该集团在某电商平台投诉删除侵犯学而思网课版权的链接约1.5万条，封闭店铺274家，被清空全部商品的店铺有102家。无独有偶，专门从事软件操作教学的百问科技有限公司表示，自2011年开始提供收费视频教程以来，公司一直面临盗版挑战。该现象在二手交易平台上更猖獗，严重影响公司权益。相关人士分析，尽管各大机构、平台利用内容加密、防盗录插件等技术手段保护版权，但不乏盗版者受利益驱使，开发相应的破解软件，“道高一尺，魔高一丈”，让人防不胜防。北京市高级人民法院法官亓蕾说，随着网络环境日益开放，侵权者活动范围从电商平台、二手交易网站向微信朋友圈、QQ群拓展，还存在多次转手倒卖现象，察觉到侵权后，权利人无法直接向平台索取对方实名信息，不能明确被告。且由于侵权者删改网络内容极其便捷，给权利人取证留证造成困难。凡此种种都导致诉讼难以进行，助长了侵权之风。专家表示，在线教育是运用互联网、人工智能等现代信息技术进行教与学互动的新型教育方式，应当理性意识到，技术手段和网络环境助推在线教育驶入快车道，同时也成为滋生侵权现象的温床。合力对盗版内容说“不”尽管在线教育诞生、成长的沃土本身孕育了侵权，但行业内部仍可有所作为。赵刚表示，企业在版权局进行作品登记、完善技术手段，避免不法分子技术破解，只是强化版权保护意识的一部分。考虑到线上教育企业人员流动性较大、对版权保护认识程度不同，还应当加强人员管理，普及相关教育，并与录制课程的教师明确版权归属，将保护版权落细落实。2019年教育部等11个部门出台《关于促进在线教育健康发展的指导意见》，要求加强知识产权保护，依法严厉打击侵犯知识产权违法犯罪行为。今年，各地积极响应国家版权局、网信办、工信部、公安部等部门，陆续开展“剑网2020”专项行动，整治在线教育培训中存在的侵权盗版乱象，切断盗版网课的灰色产业链条，取得不错成效。北京市文化市场行政执法总队对两家公司未经许可、通过营利性在线教育平台传播人民教育出版社出版教材，作出行政处罚。扬州市文化市场综合执法支队掌握网络侵权线索6条，全部予以立案。各地法院检察院也积极推进在线教育侵权案件的审理、公诉，打击知识产权犯罪行为，对侵权行为予以处罚，发挥有力的震慑作用。专家认为，以往版权保卫战中，还有一支重要力量容易遭到忽视。有需求才有市场，部分消费者图价格便宜而使用盗版资源，客观上纵容侵权行为“肆意生长”。因此消费者有必要增强版权保护意识，通过正规途径购买在线教育产品，对盗版内容说“不”。随着各方共同发力，紧握维权大旗，在线教育侵权乱象有望得到大幅改善，还在线教育市场一片清朗。(责编：孙竞、熊旭)</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>在线教育需补上“版权课”</t>
+  </si>
+  <si>
+    <t>党的十九届五中全会提出：“加强基础研究、注重原始创新”。刚刚召开的中央经济工作会议强调：“要抓紧制定实施基础研究十年行动方案”。基础研究难度大、花费高、周期长，需要持续稳定的经费支持。习近平总书记在科学家座谈会上的重要讲话中指出：“要加大基础研究投入，首先是国家财政要加大投入力度，同时要引导企业和金融机构以适当形式加大支持，鼓励社会以捐赠和建立基金等方式多渠道投入”。优化投入结构，形成持续稳定投入机制，对于加强基础研究具有重要意义。加大国家财政投入力度。强大的基础研究是建设世界科技强国的基石。当前，新一轮科技革命和产业变革蓬勃兴起，世界主要发达国家普遍进行基础研究战略部署，全球科技竞争重心不断向基础研究转移。近年来，我国科技创新取得重大成就，但在基础研究领域与世界先进水平相比仍存在不小差距，需要奋起直追。加强基础研究，首先国家财政要加大投入力度，鼓励长期坚持和大胆探索，为建设科技强国夯实基础。党的十八大以来，我国出台了《关于深化中央财政科技计划（专项、基金等）管理改革的方案》等一系列重要改革方案，助力基础研究领域取得重大突破。面向未来，我们要进一步加大国家财政投入力度，对基础研究的重点领域给予更多倾斜。比如，对地方、市场和社会力量难以有效配置资源开展研究的基础科学领域加大国家财政投入力度；进一步加大支持力度和调整结构，实现自由探索类基础研究、目标导向类基础研究均衡发展；支持地方政府结合本地区经济社会发展需要加大对相关基础研究投入。引导企业和金融机构加大支持。企业是创新的主体。企业处于生产经营的第一线、市场竞争的主战场，直接面对国内国际市场的各种风险挑战，最了解产业发展的技术需求，善于找准与经济社会发展需求相对接的基础研究方向。这决定了企业在基础研究方面大有可为。加大基础研究投入，要鼓励和支持领军企业把开展基础研究、提高原始创新能力作为战略性任务，帮助具备条件的领军企业部署建设一批重点实验室，支持相关企业与高校、科研院所等共建研发机构和联合实验室，加强面向行业共性问题的研究。落实研发费用加计扣除等政策，探索联合资助等措施，激励相关企业加大基础研究投入，充分发挥企业在产学研深度融合中的作用。此外，金融机构也要贯彻落实国家关于加强基础研究的战略部署，从自身实际出发，进一步研究如何以适当形式加大对基础研究的支持。拓宽社会投入渠道。创新是一个复杂的社会系统工程，涉及经济社会各个领域，需要全社会共同支持。我们要引导社会各方面更加关心基础研究，鼓励社会以适当方式多渠道投入基础研究。比如，可积极鼓励社会各界以捐赠的方式加大对基础研究的投入，支持具有发展潜力的科技工作者、新型研发机构开展基础研究。又如，建立支持基础研究的基金，不断规范基金的运作方式，扩大基金的资金来源，为基础研究提供经费支持。再如，积极探索科研活动协同合作、众包众筹等新方式，吸引社会各类创新主体共同破解研究难题、共享创新成果。在基础研究方面不断拓宽社会投入渠道，不仅可以为基础研究提供经费支持，还可以在全社会营造重视基础研究、支持基础研究的良好氛围。（作者单位：中国人民大学马克思主义学院）(责编：孙竞、熊旭)</t>
+  </si>
+  <si>
+    <t>不断加大基础研究投入</t>
+  </si>
+  <si>
+    <t>基础研究是科技创新的源头。习近平总书记在科学家座谈会上强调：“我国面临的很多‘卡脖子’技术问题，根子是基础理论研究跟不上，源头和底层的东西没有搞清楚。”加强基础研究是一项重大而长期的任务，要加大投入，创造良好科研生态，建立健全科学评价体系和激励机制，持续不断做好基础研究人才培养工作。创新是引领发展的第一动力。“十三五”时期，我国创新型国家建设成果丰硕。同时也要清醒看到，我国科技发展存在大而不强、基础研究和原始创新薄弱、一些关键核心技术亟待突破等问题。在新发展阶段，必须更加注重基础研究，以科技创新突破发展瓶颈。高校是我国基础研究的重要基地，是原始创新的主阵地。广大高校科研工作者要加强创新型研究，加强基础研究人才培养，为强化科技创新的人才支撑发挥关键作用。人才是创新的第一资源，创新型人才是加强基础研究、推进原始创新的主力军。党的十九届五中全会提出：“支持发展高水平研究型大学，加强基础研究人才培养。”作为培养未来创新型人才的摇篮，高校要把基础理论的教学研究摆在更加重要位置，全面提高教育质量，着力培养学生创新意识和创新能力；高度重视科教融合、产教融合，把人才培养与科技创新融为一体，把培养具有国际水平的青年科技人才和创新团队作为历史责任和使命担当。习近平总书记指出：“基础研究一方面要遵循科学发现自身规律，以探索世界奥秘的好奇心来驱动”。好奇心是做好基础研究的出发点，也是能够持之以恒做好基础研究的动力源。拥有好奇心，才能让对世界的自由探索变为自觉行为，进而取得原创性突破。居里夫妇从数吨沥青铀矿渣中提炼出氯化镭，源自对未知放射性物质的好奇；袁隆平培育出高产的籼型杂交水稻，因为他有着“禾下乘凉梦想”；屠呦呦发现全新抗疟疾药物青蒿素，获益于她对植物分类学的极大兴趣……古往今来，好奇心驱动着基础研究不断迈上新台阶。加强基础研究人才培养，首先要呵护好科研人员的好奇心，尤其是对青年研究者的“大胆假设”要给予包容，让他们从科学研究中收获乐趣，更好推开科研之门。加强基础研究人才培养，需要大力弘扬科学家精神。科学家精神的主要内涵包括六个方面：胸怀祖国、服务人民的爱国精神，勇攀高峰、敢为人先的创新精神，追求真理、严谨治学的求实精神，淡泊名利、潜心研究的奉献精神，集智攻关、团结协作的协同精神，甘为人梯、奖掖后学的育人精神。科学家精神是我国科技工作者在长期科学实践中积累的宝贵精神财富，大力弘扬科学家精神是我们加强基础研究人才培养的题中应有之义。高校科研工作者不仅要自觉践行、大力弘扬科学家精神，勇立潮头、锐意进取；还要做好“传帮带”工作，通过言传身教、以身示范，帮助学生树立科技报国的远大理想。加强基础研究人才培养，需要增强创新主体的责任感和使命感。高校不仅要教育学生遵循学术规范、坚持学术道德底线，还要鼓励学生大胆创新，对标世界前沿、对接国家战略、对准社会需求，坚持需求导向和问题导向，敢为天下先。此外，还要尊重人才成长规律和科研活动自身规律，加大对基础前沿教学研究活动的支持，为培养造就一批具有国际水平的战略科技人才、科技领军人才和创新团队搭建平台、营造氛围、提供空间。（作者为复旦大学上海医学院院长、中国科学院院士）  (责编：孙竞、熊旭)</t>
+  </si>
+  <si>
+    <t>加强基础研究人才培养</t>
+  </si>
+  <si>
+    <t>讲台上，来自贫困地区的学生讲述着脱贫攻坚给自己家乡带来的改变；讲台下，老师和学生们认真倾听一个个鲜活的脱贫故事。在哈尔滨工程大学，“小先生”讲扶贫的思政课颇受师生欢迎。学生们积极参与，思政教育入脑又入心。日前，哈尔滨工程大学被授予“第二届全国文明校园”称号，讲学习、讲政治、讲正气，有传承、有特色、有典型的“三讲三有”特色校园文化正逐渐形成。“我非常高兴能够站在这里，和大家分享我的故事。”来自贫困地区的船舶工程学院大三学生侯祥雨走上讲台，讲述中几度哽咽。年年都有的形势与政策课程，如何做到入脑又入心？马克思主义学院两位“80后”教师金璐璐、刘禹辰了解到学生中有的参加过“三下乡”社会实践活动，有的家位于边远贫困地区，本身就是扶贫对象，于是他们大胆创新课堂形式，让学生走上讲台，用亲身经历讲述脱贫攻坚成果，让政策理论“沾泥土”“带露珠”。就这样，超过1000名的哈工程学生，主动走上讲台，在形势与政策课上分享自己亲身经历的“扶贫故事”，讲述自己家乡的变化。为加强思政工作主力军建设，哈工程还坚持职称评聘“三单”政策，思政课教师和辅导员职称评聘实行单独标准、单独指标、单独评审，辅导员中产生了3名正教授、17名副教授，近3年有3人入选全国和省高校辅导员年度人物。善之本在教，教之本在师。哈尔滨工程大学始终把师资队伍建设作为提高人才培养质量的根本保证。哈工程校园共走出杨士莪、杨德森、徐玉如等多位院士。近3年来，学校涌现出全国工人先锋号、全国教育系统先进集体、全国高校黄大年式教师团队、全国模范教师、全国优秀教师等一批典型。“一项技术在理论上再完美，不能实际应用就等于零。工程问题就是要解决实际问题。”这是水声工程专家杨德森院士的治学理念，也是哈工程师德师风的生动诠释。建校以来，“治学严谨、组织严密、要求严格”的教风和“严谨、求实、勤奋、创新”的学风被一代代地传承了下来。如今，哈工程进一步严把教师入口关，增加思政面试环节；建立两谈三审一承诺制度；实行师德师风考评一票否决制，坚持把师德师风作为第一标准贯穿教师评价全过程。“学校鼓励师生积极投身科技创新行动，聚焦核心技术，解决多项‘卡脖子’难题。”哈尔滨工程大学党委书记高岩介绍，全校师生传承创新理念，哈工程学生代表队连续两年捧起国际水下机器人大赛冠军奖杯。蛟龙号潜水员唐嘉陵带领学生遨游深海；南极中山站5名队员揭秘科考生活；第九次北极科考队成员韩笑与学生们探索冰川奥秘……这群行业精英、学术专家都是哈尔滨工程大学开设的通识教育选修课《海洋中国》的主讲人，课程因疫情原因改为线上开讲，效果却丝毫不减。只有145个选修名额的网课，每次开播都挤进200多名学生。“紧扣学校办学特色，以有情有爱、有温度的课程，树立同学们热爱、投身专业领域的信念。”该课程主要负责人严汝建说。为传承红色基因，哈尔滨工程大学着力打造哈军工文化园，其中哈军工纪念馆开办的“军工往事”专栏，大力弘扬哈军工前辈扎根东北、爱国奉献、艰苦创业、服务国防的忠诚报国情怀。“学校坚持建设特色文化校园，发挥实践育人功能，将思政教育与学生活动结合、寓教于乐，使学生在活动中提高参与感、增强自豪感。”机电学院辅导员房帅说。(责编：孙竞、熊旭)</t>
+  </si>
+  <si>
+    <t>强化创新理念 弘扬向上学风</t>
+  </si>
+  <si>
+    <t>太原3月19日电 (记者 李新锁)山西“能源双雄”——山西焦煤和晋能控股19日签约划转旗下煤矿资产，以期提高产业集中度、加速山西产业转型。当天，山西省国资运营公司召开“山西焦煤与晋能控股煤矿资产重组第二批资产划转签约会议”。其间，山西焦煤和晋能控股就相关焦煤和非焦煤资产展开划转，涉及25座煤矿，产能近3000万吨。在新一轮战略重组中，山西煤炭国企从“七煤并立”变为“双雄争艳”，山西焦煤和晋能控股应运而生。重组后，山西焦煤目标直指“主导国际炼焦煤资源配置，在全球煤焦市场具有话语权和影响力”；晋能控股凭借1.11万亿元人民币资产、约4亿吨煤炭产能，跻身中国第二大、全球第三大煤炭企业。“双雄争艳”背后，山西官方并未满足于“大块头”体量，而是借助煤炭重组发挥其支撑、加速转型的“智慧”。对于前述签约，山西省国资运营公司董事长郭保民表示，此举意在促进煤炭产业优势真优、优势更优，打造战略性新兴产业电价洼地和发展高地。作为能源大省，山西长期面临国企内部产业趋同、低水平同质发展、整体规模效应小、缺乏行业话语权的窘境。山西省国资运营公司相关人士介绍，此番签约，晋能控股把旗下焦煤资源划给山西焦煤，进一步提高行业集中度、增强话语权；山西焦煤把旗下非焦煤资源划给晋能控股，推动煤电联营，降低电价成本，借助电价优势集聚、发展战略新兴产业。上述人士介绍，重组完成后，山西焦煤逐步整合山西其他省属国企焦煤资源，进而整合省内外乃至海内外焦煤资源，形成规模效应，增强市场话语权。对于晋能控股，山西高层亦要求“在做大块头的同时，不断提高科技含量、增强综合实力、培育核心竞争力”。去年10月，山西针对参与电力市场化交易的14个战略性新兴产业企业进行备案管理，使其享受终端电价0.3元/千瓦时。此举一出，长久以来形成的山西煤炭优势真正转化为真金白银的电价优势。上述人士表示，在山西“能源双雄”格局下，晋能控股将承担煤炭产业在战略性新兴产业培育过程中的支柱作用，为转型发展赢得时间和空间。“借助此番煤矿划转，晋能控股将进一步推进煤电一体化，降低电价成本，为山西打造战略性新兴产业电价洼地和发展高地夯实基础。”上述人士说。(完)</t>
+  </si>
+  <si>
+    <t>科技</t>
+  </si>
+  <si>
+    <t>山西“能源双雄”划转煤炭资源加速进化：“大块头有大智慧”</t>
+  </si>
+  <si>
+    <t>中新社武汉3月18日电 (梁婷 张熙)2020年湖北碳市场累计配额成交3.56亿吨，占全国50.8%；成交额83.51亿元(人民币，下同)，占全国54.4%。湖北碳排放权交易中心市场交易规模、引资规模、纳入企业参与度等市场指标居全国首位。湖北省政府新闻办18日举行新闻发布会，湖北省地方金融监管局副局长严宓介绍上述信息。碳排放交易是为促进全球温室气体减排，减少全球二氧化碳排放所采用的市场机制。政府通过招标、拍卖等方式将一定的二氧化碳配额，发放给有排污需求企业，配额富余企业可将富余配额出售给配额不足企业，形成一定减排收益。湖北于2011年获批成为全国七个碳排放权交易试点之一，3年后启动碳市场交易，也是国内首个外资主体参与的碳市场。数据显示，截至目前，湖北碳市场已纳入373家控排企业，总排放量2.75亿吨，约占全省45%；总产值1.1万亿元，约占全省30%。碳市场覆盖工业领域的温室气体排放，占第二产业产值的70%，涉及电力、钢铁、水泥和化工等16大行业。同时，以碳汇交易为代表的精准扶贫模式在湖北展开，利用省内贫困地区林业生态资源，湖北探索生态补偿机制。截至目前，推动全省农村户用沼气和林业碳汇项目开发达128个，预计年均减排量214万吨。全省已有217万吨贫困地区产生的碳减排量进入市场交易，为贫困地区带来收益超过5000万元。据悉，全国碳市场将于今年6月底前启动上线交易。落户湖北的全国碳交易注册登记系统(中碳登)当前正为2225家履约企业办理开户手续。严宓表示，下一步，湖北将推进全国碳排放权登记结算公司和湖北交易场所登记结算公司等新兴交易平台建设，支持各类所有制企业参与要素交易平台建设。(完)</t>
+  </si>
+  <si>
+    <t>2020年湖北碳市场交易额逾83亿元 占全国“半壁江山”</t>
+  </si>
+  <si>
+    <t>太原3月18日电 (高雨晴 原凯凯 范瑞芳)记者18日从晋能控股装备制造集团获悉，该集团与世界减速机行业一线品牌——德国弗兰德公司合作，建成进口减速机5S服务中心，填补山西此类型装备专业化维修的空白。减速机是一种机械传动装置，被广泛应用于煤矿、电力、钢铁、化工等行业。山西是国内能源大省，进口减速机常用于全省能源企业，但此类装备专业化维修在该省却一直是空白。目前，全球一线品牌的进口减速机厂商服务点多数设立在天津。从山西至天津，路途远、维修时间长等问题一直难以解决。在此背景下，晋能控股装备制造集团煤炭技术装备公司成立并投运进口减速机5S服务中心，开展国内外减速机的售后服务，成为山西唯一一家专业机构。“以前，从联系外国厂家工作人员到完成检修，至少要一周。如今，几个小时就搞定。省内有了进口装备的5S服务中心，可为我们解决了燃眉之急！”这个新突破，令长治市襄垣煤矿集团机电部门的管理人员啧啧赞叹。工作人员正在维修装备。晋能控股装备制造集团供图该服务中心技术总监韩功介绍，“中心不仅有专业设备，还具备高水平、快速维修的专业技能团队，预计年修理产能达200多台，产值达1000余万元。”对精度要求高，是进口减速机维修的“难点”。目前，上述中心拥有200T压力机、360度旋转工作台、热装齿轮加热炉等高端专业性设备，大大提升了减速机装配精度。同时，专门针对售前、售中、售后，推出应急处理、定期巡检、跟踪服务、备品备件统一调配等一条龙服务。下一步，该集团将按照“订单式、快递式、网络化”服务路径，逐步在山西、新疆等地区建立区域性综合服务中心，推动装备制造由生产制造向“制造+服务”转型。晋能控股集团资产总额1.1万亿元，煤炭产能近4亿吨，是国内第二、世界第三大煤炭企业。晋能控股装备制造集团是该集团二级子公司。(完)</t>
+  </si>
+  <si>
+    <t>从生产制造到“制造+服务” 中国第二大煤企建成进口减速机5S服务中心</t>
+  </si>
+  <si>
+    <t>重庆3月18日电 (韩璐 王雪宇)18日，重庆九龙坡区与广东国鸿氢能科技有限公司、鸿基创能科技(广州)有限公司等6家氢燃料电池企业签订协议，合作建设氢能科技产业园，打造中国西部(重庆)氢谷。根据项目协议，6家企业将在重庆九龙坡区投资40亿元(人民币，下同)，建设氢燃料电池8大关键核心零部件(质子交换膜、催化剂、膜电极、双极板、碳纸、电堆、空压机、氢气循环系统)以及燃料电池系统集成科技产业园。估计项目达产产值200亿元/年以上，税收贡献8.1亿元/年以上。项目建成后，将集聚优势头部企业形成生态链闭环，大力增强重庆市氢能产业发展核心配套能力。同时，广东国鸿氢能科技有限公司、九龙坡区及产业相关方将共同出资数十亿元组建全国性的总部运营公司，开展燃料电池车辆示范推广等合作。据了解，九龙坡区是重庆市确定的9个加快开展燃料电池示范应用的区之一。今年3月，九龙坡区启动重庆首个加氢站建设，并在重庆全市率先推进了氢燃料电池汽车的研发生产和应用，位于九龙坡区的庆铃汽车现已取得了国家氢燃料电池汽车生产资质。近年来，重庆提出要打造具有全国影响力的氢燃料电池汽车产业基地。2021年重庆市政府工作报告显示，2020年重庆汽车产业增加值增长10.1%。在产业转型升级上，重庆汽车产业正向高端化、智能化、绿色化升级。为了加快氢能产业发展，近年重庆先后研究出台了《重庆市支持新能源汽车推广应用政策措施》《重庆市氢燃料电池汽车产业发展指导意见》等政策措施，引进了博世、德燃动力、明天氢能等国内外氢能企业项目落户，逐步完善了集燃料电池产业核心零部件、系统集成制造、研发应用等在内的全产业链布局。据了解，下一步，重庆将与氢能上下游战略合作企业在制氢、储氢和燃料电池车商业化运营等发明进行合作，建设立足重庆，辐射四川、云南、贵州，服务中国的氢走廊枢纽和氢能产业链集群示范高地，打造独具特色的中国西部(重庆)氢谷。</t>
+  </si>
+  <si>
+    <t>6家氢燃料电池企业集中落户 重庆将打造中国西部（重庆）氢谷</t>
+  </si>
+  <si>
+    <t>落月一步之遥，急不得2.1公里，这是“月船2号”失去联络前与月面的距离。相比地月之间38万公里的漫漫征程，这个距离实在是太近了，几乎就是“一步之遥”。也正因为如此，印度这次无人探测器的登月行动失败得尤为可惜。只差一步，印度就会成为首个在月球南极附近实现软着陆的国家，同时也会成为继美国、俄罗斯和中国之后第四个软着陆月面的国家。“月船2号”号采用“三件套”架构，包括一个环月轨道器、一个着陆器和一部月球车。按照设计，轨道器将充当着陆器与地球印度控制中心之间的通信中继。与之相比，中国成功软着陆月背的“嫦娥4号”采用更加利落的“两件套”架构，只包括着陆器和巡视器。作为着陆器与地球通信中继的“鹊桥”中继星，则通过早前的另一枚“长征”火箭发射升空;而后“嫦娥4号”才搭乘“长征”3号火箭奔向月球。印度“月船2号”的任务架构被设计成一次发射实现整体目标。升空后“月船2号”通过不断调整轨道，最终进入月球轨道。落月前，着陆器需要先与轨道器分离，开始下降，而轨道器则作为着陆器与地面测控中心实现通信的中继，这样的分离—下降无疑增加了任务的复杂性，需要进行大量的理论计算和前期试验。如果结合着陆器和月球车蕴含俄罗斯技术的大背景，这更增加了研制和实施的挑战性。“月船2号”着陆月球失败后，有消息称“月船2号”在下降最终阶段的轨迹出现了偏差，水平偏离预定着陆点1公里左右，这可能从侧面反映出这种任务架构带来的控制问题。作为一个发展中大国，印度的航天技术可以说是发展得“有声有色”。近十几年来，印度航天取得了不少成绩，其火箭技术和测控技术都有了非常大的进步。2014年印度火星探测器成功进入火星轨道，印度成为全球第四个成功进行火星探测的国家或组织。但是，与印度心目中的太空任务目标相比，其航天产业在火箭动力、自动控制、通信、材料技术等方面都还需要多方提升，才能满足任务需求。总体来看，印度的探月计划进行得多少有些急躁。如果按照“先绕再落”的技术进程，2008年印度用于绕月探测的“月船1号”任务完成得并不完满，探测器在尚未到使用寿命时突然与地面失联，这折射出某些技术可靠性不足。此后印度并未以完善绕月探测技术为目的继续实施类似计划，“月船2号”直接将挑战升级到“绕月+落月”，这显然增加了科研团队的工作负担以及任务风险。“月船2号”的任务并未完全失败，轨道器仍能继续进行一部分探测任务，直到耗尽1年的工作寿命。印度原计划在2024年发射“月船3号”，再次尝试月面软着陆。随着“月船2号”任务情况的逐步明朗，也许印度会做出相应调整。步子如能放稳些，印度航天成果可能会更多、更大。(作者是中国航空学会《航空知识》主编)</t>
+  </si>
+  <si>
+    <t>军事</t>
+  </si>
+  <si>
+    <t>落月一步之遥急不得 印度探月计划有些急躁</t>
+  </si>
+  <si>
+    <t>伊朗原子能组织发言人卡迈勒万迪7日确认，伊朗已经具备生产丰度超过20%浓缩铀的能力，只是暂时不打算这样做。但卡迈勒万迪强调说，伊朗已经启动40台更为先进的离心机，这些机器将被用于增加伊朗的浓缩铀储备以及一些科研活动。埃及《消息报》称，这是伊朗削弱伊核协议义务第三阶段的表现之一，旨在向国际社会、主要是欧洲方面施加压力，以解除美国对伊朗的“极限施压”。据中东媒体报道，国际原子能机构代理总干事费卢塔8日抵达伊朗首都德黑兰，分别与伊朗外交部长扎里夫、伊朗原子能组织主席萨利希和国家最高安全委员会秘书等举行会谈。国际原子能机构称，这次访问是与德黑兰“持续互动”的一部分，包括“根据《联合全面行动计划》对伊朗进行核查和监测”。萨利希在会谈中强硬表态称，伊朗自今年5月以来三次减少履行伊核协议义务只是“在合适的时间做了合适的事情”。伊朗政府发言人拉比7日在一份备忘录中说，德黑兰的政策是取消美国的制裁战略，并在2021年5月之前终止所有反伊朗禁令。伊朗总统鲁哈尼领导的政府将为此尽一切努力，届时伊朗将把政府移交给下届总统。另据伊朗法尔斯通讯社7日报道，伊朗海岸警备队当天在霍尔木兹海峡的伊朗领海扣押了一艘载有28.39万升柴油的走私船，船上12名菲律宾公民被扣押。</t>
+  </si>
+  <si>
+    <t>伊朗增加浓缩铀储备施压欧洲 启动40台先进离心机</t>
+  </si>
+  <si>
+    <t>“俄罗斯与乌克兰完成了历史性的大规模换囚工作。”7日，根据俄罗斯总统普京和乌克兰总统泽连斯基达成的协议，双方各自释放35名被关押的对方公民。俄乌总统互通电话对此给予较高评价，泽连斯基称这是结束顿巴斯地区冲突的第一步，国际媒体普遍认为，俄乌两国关系开始回暖。据俄罗斯《观点报》7日报道，此次乌方释放了关押的俄新社乌克兰分社社长维申斯基、亲俄武装司令谢马赫等35名俄罗斯囚犯。作为交换，俄罗斯则释放了去年11月25日刻赤海峡冲突中被扣押的24名乌克兰海军士兵以及11名被指控在克里米亚等地从事危害俄国家安全的乌克兰人。俄罗斯外交部在其网站发表评论称，这是一个积极的信号，其后应采取其他重要步骤，使两国关系正常化。“今日俄罗斯”电视台主编西蒙尼扬称，泽连斯基执政给予俄乌关系正常化一丝希望。“我们未必能够恢复友谊，但起码能够停战。波罗申科执政期间完全没有这种希望。这是5年来俄乌关系第一次有正面和喜人的事件”。换囚工作完成后，普京与泽连斯基7日通过电话进行了交谈。克里姆林宫新闻局称，“双方讨论了乌克兰内部局势调解问题，并强调遵守停火制度以及逐步从军事接触线撤出部队和武器的重要性”。乌克兰总统办公室表示，俄乌双方对为实现对话正常化而履行第一阶段框架内达成的协议感到满意，两国总统商定将于近期就举行诺曼底四方会谈展开磋商。泽连斯基透露，将在第二阶段争取释放所有双方被扣押的人员，双方还就顿巴斯冲突各方从军事接触线后撤部队达成协议，而在最终阶段，乌克兰将恢复对顿涅茨克和卢甘斯克两州边境的控制。乌克兰新外长普里斯塔伊科7日表示，乌方将与俄方继续就释放被拘留者进行协商。俄罗斯塔斯社报道称，基辅政治研究与冲突学中心主任米哈伊尔波格列宾斯基表示，俄乌相互释放被扣押的公民，意味着两国之间的关系正温和转暖，两国间的直接对话也卓有成效，但不要抱有关系迅速实现正常化的幻想。</t>
+  </si>
+  <si>
+    <t>俄乌大规模换囚两国总统通电话 俄媒:是积极信号</t>
+  </si>
+  <si>
+    <t>在印度月球探测器“月船二号”释放的着陆器7日尝试在月球南极区域着陆前，印度媒体集体发出欢呼：“我们将紧随美国、俄罗斯和中国之后，成为第四太空强国！”然而就在着陆器距离月面仅2.1公里时，突然与地球失去联系。印度空间研究组织8日宣布，在月球轨道上运行的“月船二号”轨道器已经发现着陆器的位置，但未能确认它的状态，印度科学家们正试图与它重新建立联系。《印度时报》7日称，“月船2号”是印度第二个月球探测器，于7月22日发射升空，它由轨道器、着陆器和月球车3部分组成。9月2日，着陆器与“月船2号”的轨道器分离，开始尝试在月球南极地区着陆。印度当地时间7日1时38分，着陆器从距月面约35公里高度进入动力下降段，开始计划中的15分钟着陆。印度总理莫迪亲临印度空间研究组织位于班加罗尔的总部，见证这个历史时刻。着陆器顺利进入降落阶段时，控制中心爆出热烈掌声。下降飞行开始时数据显示一切正常，但在距离月面2.1公里时，着陆器突然与地面失去联系。当时，着陆器距离预定着陆点有约1公里的水平偏差。尽管印度空间研究组织一直没有宣布登月失败的消息，但根据当时着陆器的速度，外界猜测它很可能已经当场坠毁。“月船2号”着陆器失联前的直播画面面对全场沮丧的印度科学家，莫迪将原先的庆祝仪式化为一场替科学家重新加油鼓气的演讲。他安慰说：“生活中有起起伏伏，这是一个不小的成就。国家为你们骄傲。”对于这次挫折，他还表示，“在太空计划上我们充满信心，最好的还在后头。”从某种意义上说，莫迪的安慰的确言之有理。美国“太空”网站8日称，虽然外界对“月船2号”能否在月球上软着陆更为重视，但其实仍在月球轨道上运转的轨道器才承担着这次月球任务的主要科学任务。印度空间研究组织负责人西旺在证实着陆器失联的同时，也强调“轨道器很健康，完好无损，在月球轨道正常运行”。全球航天界也对印度月球着陆器软着陆失败给予安慰。美国航空航天局在社交媒体上表示：“太空（探索）是很困难的。我们赞赏印度空间研究组织用‘月船2号’登陆月球南极的尝试，你们的旅程激励着我们，期待着未来有机会一起探索我们的太阳系。”对于事故原因，外界也各有猜测。印度空间研究组织负责人西旺8日接受“今日印度电视台”采访时透露，目前“月船二号”轨道器已通过热成像发现着陆器的位置，科学家正试图与它重新恢复联系。俄《观点报》称，俄航天集团公司此前曾告诉印方，应对“月船2号”项目相关的技术进行全面的重新审查。报道称，当时俄专家认为，最容易出现问题的是在落月过程中，此时设备不能出现任何差错。俄方还建议印度增加月球着陆器的重量，以避免风险。但印度最终决定不需要俄罗斯的帮助，自主发射着陆器和月球车。火箭整流罩中的“月船2号”据介绍，在整个落月过程中，着陆器的反冲火箭设计极为关键。因为月球基本没有空气，而且月球表面坑洼不平，只能依靠反冲火箭的精确控制，让着陆器慢慢落到月面。中国“嫦娥”月球探测器数次干净利索地顺利落月，看似平常，背后却是实力的支撑。根据印度媒体此前披露的信息，“月船2号”着陆器使用多台发动机配合工作的方式进行减速和着陆。首先使用4台推力为800牛的液体火箭发动机同时工作以“粗减速”，到一定速度和高度后改变发动机推力进行“精减速”，然后关闭其中两台发动机，使用两台发动机进行精密垂直着陆，最后启动位于登陆器中央的一台发动机进行缓冲。这个过程中姿态控制非常关键，特别是由4台发动机转为使用两台对角线发动机进行控制时，容易导致姿态控制不稳而“翻船”失控。《印度时报》称，根据美国航空航天局的数据，60年来只有60%的探月计划能取得成功。“总计109次月球任务中，61次成功，48次失败”。目前轨道器仍将按计划绕月球运转一年，依靠搭载的多台科研设备对月球表面进行细致的探测，因此整个“月船2号”计划仍难言失败。美国《华盛顿邮报》表示，此次登月任务是印度“巨大的民族自豪感”的来源之一。尽管遭遇挫折，但社交媒体上还是爆发了对印度航天部门及科学家的支持。《纽约时报》称，“虽然印度没有在第一次尝试中成功软着陆，但它的尝试突显出其工程实力和数十年的太空发展，与它的全球雄心是结合在一起的。”这次失败之后，印度打算在未来的落月计划中寻求国际合作。《印度时报》称，印度计划于2023年与日本合作登月。其中日本提供运载火箭和月球车，印度则提供着陆器。▲</t>
+  </si>
+  <si>
+    <t>印度登月为何功亏一篑？反冲火箭设计极为关键</t>
+  </si>
+  <si>
+    <t>美国《星条旗报》7日披露，美国太空司令部刚成立，立即马不停蹄地组织起大规模兵棋推演，演练未来可能在太空中爆发的战争模式。报道称，从4日开始在亚拉巴马州马克斯韦尔空军基地举行的“施里弗-2019”，是美国太空司令部成立以来组织的首次太空战计算机模拟演习。本次太空战兵棋推演旨在模拟关键性太空作战，与太空系统和服务相关的多个机构均有涉及。来自美军27个单位的近350名人员参与此次“施里弗”兵棋推演，澳大利亚、加拿大、新西兰和英国方面也派人参加。本次兵棋推演把美军几大军种指挥部、美国和盟国情报机构联合在一起，重点研究2029年“某个假想敌国家”发起的“多域战”。这是一种全新的作战概念，集成传统的陆战、海战、空战和太空战、网络攻击等多领域作战行动。尽管美军未证实该假想敌是中国或俄罗斯，但美军太空司令部曾公开强调，某假想敌国家正在“利用多域作战来实现其战略目标”。与调动大量装备和人员的常规军演不同，“施里弗”兵棋推演的参演兵力较少，但它却预测了未来大规模战争的场景。在演习想定中，不同领域的作战环境都面临威胁，对美军指挥官和参谋、情报部门负责人、太空系统操作员的能力提出全面挑战。此外，“施里弗”兵推也被用于研究美国面临太空战威胁时的需求，比如帮助美军论证太空作战对外太空和地面提出的新型装备需求。▲ （邢濒鹤）</t>
+  </si>
+  <si>
+    <t>太空司令部刚成立 美国就马不停蹄演练太空战</t>
   </si>
 </sst>
 </file>
@@ -530,7 +545,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D25"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -557,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="14" customHeight="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -595,219 +610,219 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
